--- a/public/api/conf/1.0/examples/annotated_XML_samples/Annotated_Scenario_Descriptions_TTM20.0_20220818.xlsx
+++ b/public/api/conf/1.0/examples/annotated_XML_samples/Annotated_Scenario_Descriptions_TTM20.0_20220818.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://capgemini.sharepoint.com/sites/HMRCCDSExternalTestTeam/Shared Documents/General/Trade Test/Annotated Samples (New Annotated Samples)/annotated_XML_samples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="293" documentId="13_ncr:1_{694508C1-44D1-45E9-BF6C-D6078E307FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48A7C597-B7BC-490E-8416-DC27375608E6}"/>
+  <xr:revisionPtr revIDLastSave="314" documentId="13_ncr:1_{694508C1-44D1-45E9-BF6C-D6078E307FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93167FA0-D05E-4661-B373-48E5864069AA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{66F30450-0B9C-492C-A18B-7B1FBD18313F}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Scenario Descriptions'!$A$1:$I$164</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'TTM20.0 Changes'!$A$1:$D$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'TTM20.0 Changes'!$A$1:$E$36</definedName>
     <definedName name="E2E_Status_List">'[1]TTM12.2 Status'!$B$3:$B$8</definedName>
     <definedName name="E2E_Status_Lookup">'[1]TTM12.2 Status'!$B$3:$C$8</definedName>
     <definedName name="XML_Status_List">'[1]TTM12.2 Status'!$B$12:$B$18</definedName>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="697">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="702">
   <si>
     <t>Annotated Sample Reference</t>
   </si>
@@ -1506,10 +1506,6 @@
     <t>TT_IM033b</t>
   </si>
   <si>
-    <t xml:space="preserve">Import frontier declaration, from RoW to GB, with re-calculation of provisional duty after an amendment has been applied
-</t>
-  </si>
-  <si>
     <t>Type A Frontier declaration where indicative duty is calculated and trader has the ability to make amendments to reduce the item price based on the indicative duty calculated, before the final calculation is processed.</t>
   </si>
   <si>
@@ -1753,10 +1749,6 @@
     <t>TT_IM047b</t>
   </si>
   <si>
-    <t xml:space="preserve">ROW to NI, NIIMP, Goods 'At Risk', Onward Supply Relief - retention
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">A Type Y declaration for goods imported from the Rest of the World to Northern Ireland, where the goods are 'At Risk' of entry to the EU. As it is an OSR, relief on VAT is claimed and for those goods being forwarded to EU via Northern Ireland. VAT is relieved, and all other duties are calculated and charged; The NI Trader is notified of the VAT which has been relieved and the other duties that are payable.  </t>
   </si>
   <si>
@@ -2060,10 +2052,6 @@
   </si>
   <si>
     <t>0020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	
-Imports frontier EIDR declaration from JE to GB for multiple consignments of low value goods items</t>
   </si>
   <si>
     <t xml:space="preserve">Trader submits a Type J import declaration from JE (Jersey) to GB, for multiple consignments of low value non-excise goods items (of a value up to £135) in a single declaration. The declaration type 'CO' is entered to indicate this is a Special Fiscal Territories declaration type. The procedure code '0020' and additional procedure code '21V' are used to derive and enforce the C21i procedure category. The additional procedure code '15F' is also entered to indicate the goods are moving from JE.  The trader also enters an authorisation type code 'BRD', an authorisation holder with a valid EORI, and an additional document code '1BRD' in DE 2/3. </t>
@@ -2496,30 +2484,15 @@
     <t>Declaration, movement message and notifications update</t>
   </si>
   <si>
-    <t>Declaration changes required, following update to Tariff data,:
- - Added DE 2/3 Additional Document Y901 for Goods Item no.1  and DE 2/3 Additional Document E020 for Goods Item no. 2. 
- - Updated DE 2/1 Previous Document DUCR value.</t>
-  </si>
-  <si>
     <t>Declaration change to update annotation for scenario details with correct location of goods.</t>
   </si>
   <si>
-    <t>Declaration changes required following  update to Tariff data:
- - Reduced values in DE 6/1 Net Mass and DE 6/5 Gross Mass to trigger security.
- - Added DE 4/16 Valuation Method, and DE 2/3 Addditional Document with code N935.</t>
-  </si>
-  <si>
     <t>Declaration change to remove annotation for KEL 376 and add note explaining that some of the trigger words relating to ALVS are case sensitive.</t>
   </si>
   <si>
     <t>Declaration change to update annotation for scenario details with correct description of goods.</t>
   </si>
   <si>
-    <t>Declaration changes required, following update to Tariff data,:
- - Updated DE 6/14 Commodity Code value from 73045999 to 73045989. 
- - Corrected DE 5/23 Location of Goods annotation for type of location.</t>
-  </si>
-  <si>
     <t>Declaration change to update annotations for DE 5/23 Location of Goods and DE 7/4 Mode of transport at the border.</t>
   </si>
   <si>
@@ -2532,9 +2505,6 @@
     <t>Declaration change to update DE 2/1  Previous Document ZZZZ annotation.</t>
   </si>
   <si>
-    <t>Declaration change required, following update to Tariff data, to update DE 2/3 Additional Document C678 to include description "Reason for waiver".</t>
-  </si>
-  <si>
     <t>Import frontier declaration, for goods moving from Continental Shelf (CS) UK into NI, where the amount of duty payable on "de-risked" items is subject to the correct measures</t>
   </si>
   <si>
@@ -2542,19 +2512,6 @@
   </si>
   <si>
     <t>Import frontier declaration, for goods moving from Continental Shelf (CS) Norway into NI, where the amount of duty payable on "at-risk" items is subject to the correct measures</t>
-  </si>
-  <si>
-    <t>Declaration change required, following update to Tariff data, to add DE 2/3 Additional Document Y127.</t>
-  </si>
-  <si>
-    <t>Declaration changes required, following update to Tariff data,:
- - Removed DE 2/3 Additional Document C400.
- - Updated DE 3/1 Exporter name and address values, DE 5/14 Country of Dispatch/Export Code value from US to RU, DE 5/15 Country of Origin value from US to RU, DE 6/14 Commodity Code from 96138000 to 24039100, and DE 6/8 Description of Goods value from "Cigarette lighters and other lighters" to "Homogenised or reconstituted tobacco".</t>
-  </si>
-  <si>
-    <t>Declaration changes required, following update to Tariff data,:
- - Updated DE 3/1 Exporter name and address values, DE 5/14 Country of Dispatch/Export Code value from US to RU, and DE 5/15 Country of Origin value from US to RU. 
- - Added DE 2/3 Additional Document with code Y920.</t>
   </si>
   <si>
     <t>TT_EX032a</t>
@@ -2621,6 +2578,72 @@
 DMSACC
 DMSTAX
 DMSCLE</t>
+  </si>
+  <si>
+    <t>Declaration changes, following update to Tariff data,:
+ - Added DE 2/3 Additional Document Y901 for Goods Item no.1  and DE 2/3 Additional Document E020 for Goods Item no. 2. 
+ - Updated DE 2/1 Previous Document DUCR value.
+ - Updated general DE annotation and formatting.</t>
+  </si>
+  <si>
+    <t>Import frontier declaration, from RoW to GB, with re-calculation of provisional duty after an amendment has been applied</t>
+  </si>
+  <si>
+    <t>Declaration change to add annotation explaining that following the Tariff data refresh for TTM20.0, this scenario is now rejected. An update is planned for TTM20.0.1.</t>
+  </si>
+  <si>
+    <t>Declaration changes, following update to Tariff data,:
+ - Removed DE 2/3 Additional Document C400.
+ - Updated DE 3/1 Exporter name and address values, DE 5/14 Country of Dispatch/Export Code value from US to RU, DE 5/15 Country of Origin value from US to RU, DE 6/14 Commodity Code from 96138000 to 24039100, DE 6/8 Description of Goods value from "Cigarette lighters and other lighters" to "Homogenised or reconstituted tobacco".
+ - Updated general DE annotation and formatting.</t>
+  </si>
+  <si>
+    <t>Declaration changes, following update to Tariff data:
+ - Updated DE 4/14 Item Price/ Amount value.
+ - Updated general DE annotation and formatting.</t>
+  </si>
+  <si>
+    <t>ROW to NI, NIIMP, Goods 'At Risk', Onward Supply Relief - retention</t>
+  </si>
+  <si>
+    <t>Declaration changes, following update to Tariff data,:
+ - Updated DE 3/1 Exporter name and address values, DE 5/14 Country of Dispatch/Export Code value from US to RU, DE 5/15 Country of Origin value from US to RU. 
+ - Added DE 2/3 Additional Document with code Y920.</t>
+  </si>
+  <si>
+    <t>Declaration changes, following update to Tariff data,:
+ - Updated DE 6/14 Commodity Code value from 73045999 to 73045989. 
+ - Corrected DE 5/23 Location of Goods annotation for type of location.</t>
+  </si>
+  <si>
+    <t>Imports frontier EIDR declaration from JE to GB for multiple consignments of low value goods items</t>
+  </si>
+  <si>
+    <t>Declaration changes, following update to Tariff data:
+ - Added scenario annotation explaining that following the Tariff data refresh for TTM20.0, this scenario is now rejected. An update is planned for TTM20.0.1.
+ - Updated DE 4/16 Valuation Method annotation for remove old guidance.</t>
+  </si>
+  <si>
+    <t>Declaration changes following  update to Tariff data:
+ - Reduced values in DE 6/1 Net Mass and DE 6/5 Gross Mass to trigger security.
+ - Added DE 4/16 Valuation Method, and DE 2/3 Addditional Document with code N935.
+ - Updated DE 4/16 Valuation Method annotation for remove old guidance.</t>
+  </si>
+  <si>
+    <t>Declaration change, following update to Tariff data:
+ - Updated DE 2/3 Additional Document C678 to include description "Reason for waiver".
+ - Updated DE 4/16 Valuation Method annotation for remove old guidance.</t>
+  </si>
+  <si>
+    <t>Declaration changes, following update to Tariff data:
+ - Added  DE 2/3 Additional Document Y127.
+ - Updated DE 4/16 Valuation Method annotation for remove old guidance.</t>
+  </si>
+  <si>
+    <t>Following the Tariff data refresh for TTM20.0, this scenario is now rejected. An update is planned for TTM20.0.1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The declaration has been updated following a change to Tariff data. However, notifications have not been changed and will be updated for TTM20.0.1. </t>
   </si>
 </sst>
 </file>
@@ -2860,7 +2883,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2873,12 +2896,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2925,12 +2942,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -2939,9 +2950,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -2955,20 +2963,29 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3026,6 +3043,7 @@
       <sheetName val="TTM17.0.1 Changes"/>
       <sheetName val="TTM19.0.1 Changes"/>
       <sheetName val="TTM19.0 Changes"/>
+      <sheetName val="E01 or E02"/>
       <sheetName val="Future Changes"/>
       <sheetName val="Updates"/>
       <sheetName val="DataSets &amp; Samples"/>
@@ -3083,7 +3101,8 @@
       <sheetData sheetId="37"/>
       <sheetData sheetId="38"/>
       <sheetData sheetId="39"/>
-      <sheetData sheetId="40">
+      <sheetData sheetId="40"/>
+      <sheetData sheetId="41">
         <row r="3">
           <cell r="B3" t="str">
             <v>Test Waiting</v>
@@ -3189,10 +3208,10 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="41"/>
       <sheetData sheetId="42"/>
       <sheetData sheetId="43"/>
       <sheetData sheetId="44"/>
+      <sheetData sheetId="45"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3518,31 +3537,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3559,19 +3578,19 @@
       <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="5"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -3586,24 +3605,24 @@
       <c r="D3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="18" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="210" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="10" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -3615,19 +3634,19 @@
       <c r="D4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="18" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3644,19 +3663,19 @@
       <c r="D5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="5"/>
+      <c r="I5" s="18"/>
     </row>
     <row r="6" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -3671,19 +3690,19 @@
       <c r="D6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="18" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3700,19 +3719,19 @@
       <c r="D7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="20" t="s">
+      <c r="H7" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="18" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3729,19 +3748,19 @@
       <c r="D8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="H8" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="18" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3758,19 +3777,19 @@
       <c r="D9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="H9" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="18" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3787,19 +3806,19 @@
       <c r="D10" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="G10" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="H10" s="20" t="s">
+      <c r="H10" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="5"/>
+      <c r="I10" s="18"/>
     </row>
     <row r="11" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -3814,19 +3833,19 @@
       <c r="D11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="G11" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="H11" s="20" t="s">
+      <c r="H11" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="18" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3843,19 +3862,19 @@
       <c r="D12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G12" s="20" t="s">
+      <c r="G12" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="20" t="s">
+      <c r="H12" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="18" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3872,19 +3891,19 @@
       <c r="D13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="G13" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="20" t="s">
+      <c r="H13" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="I13" s="5"/>
+      <c r="I13" s="18"/>
     </row>
     <row r="14" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
@@ -3899,22 +3918,22 @@
       <c r="D14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="G14" s="20" t="s">
+      <c r="G14" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="H14" s="20" t="s">
+      <c r="H14" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="I14" s="5"/>
+      <c r="I14" s="18"/>
     </row>
     <row r="15" spans="1:9" ht="225" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="10" t="s">
         <v>80</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -3926,22 +3945,22 @@
       <c r="D15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="F15" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="G15" s="20" t="s">
+      <c r="G15" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="H15" s="20" t="s">
+      <c r="H15" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="I15" s="5"/>
+      <c r="I15" s="18"/>
     </row>
     <row r="16" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="10" t="s">
         <v>85</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -3953,22 +3972,22 @@
       <c r="D16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="F16" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="G16" s="20" t="s">
+      <c r="G16" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="H16" s="20" t="s">
+      <c r="H16" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="I16" s="5"/>
+      <c r="I16" s="18"/>
     </row>
     <row r="17" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="10" t="s">
         <v>89</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -3980,24 +3999,24 @@
       <c r="D17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="F17" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="G17" s="20" t="s">
+      <c r="G17" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="H17" s="20" t="s">
+      <c r="H17" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" s="18" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="10" t="s">
         <v>93</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -4009,22 +4028,22 @@
       <c r="D18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="F18" s="21" t="s">
+      <c r="F18" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="G18" s="20" t="s">
+      <c r="G18" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="H18" s="20" t="s">
+      <c r="H18" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="I18" s="5"/>
+      <c r="I18" s="18"/>
     </row>
     <row r="19" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="10" t="s">
         <v>98</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -4036,51 +4055,51 @@
       <c r="D19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="F19" s="21" t="s">
+      <c r="F19" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="G19" s="20" t="s">
+      <c r="G19" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="20" t="s">
+      <c r="H19" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="I19" s="5"/>
+      <c r="I19" s="18"/>
     </row>
     <row r="20" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="10" t="s">
         <v>102</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="12" t="s">
         <v>103</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="F20" s="21" t="s">
+      <c r="F20" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="G20" s="20" t="s">
+      <c r="G20" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="H20" s="20" t="s">
+      <c r="H20" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="I20" s="18" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="10" t="s">
         <v>106</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -4092,22 +4111,22 @@
       <c r="D21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="F21" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="G21" s="20" t="s">
+      <c r="G21" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="H21" s="20" t="s">
+      <c r="H21" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="I21" s="5"/>
+      <c r="I21" s="18"/>
     </row>
     <row r="22" spans="1:9" ht="225" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="10" t="s">
         <v>111</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -4119,22 +4138,22 @@
       <c r="D22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="24" t="s">
+      <c r="E22" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="F22" s="27" t="s">
+      <c r="F22" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="G22" s="20" t="s">
+      <c r="G22" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="H22" s="20" t="s">
+      <c r="H22" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="I22" s="5"/>
+      <c r="I22" s="18"/>
     </row>
     <row r="23" spans="1:9" ht="390" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="10" t="s">
         <v>116</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -4146,22 +4165,22 @@
       <c r="D23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="20" t="s">
+      <c r="E23" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="F23" s="20" t="s">
+      <c r="F23" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="G23" s="20" t="s">
+      <c r="G23" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="H23" s="20" t="s">
+      <c r="H23" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="I23" s="5"/>
+      <c r="I23" s="18"/>
     </row>
     <row r="24" spans="1:9" ht="255" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="10" t="s">
         <v>121</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -4173,22 +4192,22 @@
       <c r="D24" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="20" t="s">
+      <c r="E24" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="F24" s="20" t="s">
+      <c r="F24" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="G24" s="20" t="s">
+      <c r="G24" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="H24" s="20" t="s">
+      <c r="H24" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="I24" s="5"/>
+      <c r="I24" s="18"/>
     </row>
     <row r="25" spans="1:9" ht="195" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="10" t="s">
         <v>126</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -4200,24 +4219,24 @@
       <c r="D25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="20" t="s">
+      <c r="E25" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="F25" s="20" t="s">
+      <c r="F25" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="G25" s="20" t="s">
+      <c r="G25" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="H25" s="20" t="s">
+      <c r="H25" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="I25" s="18" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="195" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="10" t="s">
         <v>131</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -4229,24 +4248,24 @@
       <c r="D26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="20" t="s">
+      <c r="E26" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="F26" s="20" t="s">
+      <c r="F26" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="G26" s="20" t="s">
+      <c r="G26" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="H26" s="20" t="s">
+      <c r="H26" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="I26" s="5" t="s">
+      <c r="I26" s="18" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="10" t="s">
         <v>135</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -4258,22 +4277,22 @@
       <c r="D27" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E27" s="20" t="s">
+      <c r="E27" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="F27" s="20" t="s">
+      <c r="F27" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="G27" s="20" t="s">
+      <c r="G27" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="H27" s="20" t="s">
+      <c r="H27" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I27" s="5"/>
+      <c r="I27" s="18"/>
     </row>
     <row r="28" spans="1:9" ht="255" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="10" t="s">
         <v>139</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -4285,24 +4304,24 @@
       <c r="D28" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F28" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="G28" s="20" t="s">
+      <c r="G28" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="H28" s="20" t="s">
+      <c r="H28" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="I28" s="5" t="s">
+      <c r="I28" s="18" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="10" t="s">
         <v>145</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -4314,49 +4333,49 @@
       <c r="D29" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F29" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20" t="s">
+      <c r="G29" s="18"/>
+      <c r="H29" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="I29" s="5"/>
+      <c r="I29" s="18"/>
     </row>
     <row r="30" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="10" t="s">
         <v>151</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="12" t="s">
         <v>29</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F30" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="G30" s="20" t="s">
+      <c r="G30" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H30" s="20" t="s">
+      <c r="H30" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="I30" s="5" t="s">
+      <c r="I30" s="18" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="10" t="s">
         <v>154</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -4368,24 +4387,24 @@
       <c r="D31" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F31" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="G31" s="20" t="s">
+      <c r="G31" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="H31" s="20" t="s">
+      <c r="H31" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="I31" s="5" t="s">
+      <c r="I31" s="18" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
+    <row r="32" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
         <v>159</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -4397,24 +4416,24 @@
       <c r="D32" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="F32" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="G32" s="20" t="s">
+      <c r="G32" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="H32" s="20" t="s">
+      <c r="H32" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="I32" s="5" t="s">
+      <c r="I32" s="18" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="10" t="s">
         <v>164</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -4426,20 +4445,20 @@
       <c r="D33" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="F33" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20" t="s">
+      <c r="G33" s="18"/>
+      <c r="H33" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="I33" s="5"/>
+      <c r="I33" s="18"/>
     </row>
     <row r="34" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="10" t="s">
         <v>169</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -4451,101 +4470,101 @@
       <c r="D34" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E34" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="F34" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="G34" s="20" t="s">
+      <c r="G34" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="H34" s="20" t="s">
+      <c r="H34" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="I34" s="5"/>
+      <c r="I34" s="18"/>
     </row>
     <row r="35" spans="1:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="10" t="s">
         <v>173</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="26" t="s">
+      <c r="C35" s="22" t="s">
         <v>174</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E35" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="F35" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="G35" s="20" t="s">
+      <c r="G35" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="H35" s="20" t="s">
+      <c r="H35" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="I35" s="5"/>
+      <c r="I35" s="18"/>
     </row>
     <row r="36" spans="1:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
-        <v>679</v>
+      <c r="A36" s="10" t="s">
+        <v>669</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C36" s="26">
+      <c r="C36" s="22">
         <v>1040</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E36" s="6" t="s">
-        <v>643</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>644</v>
-      </c>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20" t="s">
+      <c r="E36" s="18" t="s">
+        <v>640</v>
+      </c>
+      <c r="F36" s="18" t="s">
+        <v>641</v>
+      </c>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="I36" s="5"/>
+      <c r="I36" s="18"/>
     </row>
     <row r="37" spans="1:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="A37" s="12" t="s">
-        <v>680</v>
+      <c r="A37" s="10" t="s">
+        <v>670</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C37" s="26">
+      <c r="C37" s="22">
         <v>2300</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="6" t="s">
-        <v>645</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>646</v>
-      </c>
-      <c r="G37" s="20" t="s">
+      <c r="E37" s="18" t="s">
+        <v>642</v>
+      </c>
+      <c r="F37" s="18" t="s">
+        <v>643</v>
+      </c>
+      <c r="G37" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="H37" s="20" t="s">
-        <v>681</v>
-      </c>
-      <c r="I37" s="5"/>
+      <c r="H37" s="18" t="s">
+        <v>671</v>
+      </c>
+      <c r="I37" s="18"/>
     </row>
     <row r="38" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="11" t="s">
         <v>178</v>
       </c>
       <c r="B38" s="3" t="s">
@@ -4557,20 +4576,20 @@
       <c r="D38" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E38" s="20" t="s">
+      <c r="E38" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="F38" s="20" t="s">
+      <c r="F38" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20" t="s">
+      <c r="G38" s="18"/>
+      <c r="H38" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="I38" s="5"/>
+      <c r="I38" s="18"/>
     </row>
     <row r="39" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="11" t="s">
         <v>183</v>
       </c>
       <c r="B39" s="3" t="s">
@@ -4582,20 +4601,20 @@
       <c r="D39" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E39" s="20" t="s">
+      <c r="E39" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="F39" s="20" t="s">
+      <c r="F39" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20" t="s">
+      <c r="G39" s="18"/>
+      <c r="H39" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="I39" s="5"/>
+      <c r="I39" s="18"/>
     </row>
     <row r="40" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="11" t="s">
         <v>187</v>
       </c>
       <c r="B40" s="3" t="s">
@@ -4607,20 +4626,20 @@
       <c r="D40" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E40" s="20" t="s">
+      <c r="E40" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="F40" s="20" t="s">
+      <c r="F40" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20" t="s">
+      <c r="G40" s="18"/>
+      <c r="H40" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="I40" s="5"/>
+      <c r="I40" s="18"/>
     </row>
     <row r="41" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="11" t="s">
         <v>190</v>
       </c>
       <c r="B41" s="3" t="s">
@@ -4632,20 +4651,20 @@
       <c r="D41" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E41" s="20" t="s">
+      <c r="E41" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="F41" s="20" t="s">
+      <c r="F41" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20" t="s">
+      <c r="G41" s="18"/>
+      <c r="H41" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="I41" s="5"/>
+      <c r="I41" s="18"/>
     </row>
     <row r="42" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A42" s="13" t="s">
+      <c r="A42" s="11" t="s">
         <v>193</v>
       </c>
       <c r="B42" s="3" t="s">
@@ -4657,20 +4676,20 @@
       <c r="D42" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E42" s="20" t="s">
+      <c r="E42" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="F42" s="20" t="s">
+      <c r="F42" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20" t="s">
+      <c r="G42" s="18"/>
+      <c r="H42" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="I42" s="5"/>
+      <c r="I42" s="18"/>
     </row>
     <row r="43" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A43" s="13" t="s">
+      <c r="A43" s="11" t="s">
         <v>196</v>
       </c>
       <c r="B43" s="3" t="s">
@@ -4682,20 +4701,20 @@
       <c r="D43" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E43" s="20" t="s">
+      <c r="E43" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="F43" s="21" t="s">
+      <c r="F43" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20" t="s">
+      <c r="G43" s="18"/>
+      <c r="H43" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="I43" s="5"/>
+      <c r="I43" s="18"/>
     </row>
     <row r="44" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A44" s="13" t="s">
+      <c r="A44" s="11" t="s">
         <v>199</v>
       </c>
       <c r="B44" s="3" t="s">
@@ -4707,17 +4726,17 @@
       <c r="D44" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E44" s="20" t="s">
+      <c r="E44" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="F44" s="21" t="s">
+      <c r="F44" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="G44" s="20"/>
-      <c r="H44" s="20" t="s">
+      <c r="G44" s="18"/>
+      <c r="H44" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="I44" s="5"/>
+      <c r="I44" s="18"/>
     </row>
     <row r="45" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
@@ -4732,19 +4751,19 @@
       <c r="D45" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E45" s="20" t="s">
+      <c r="E45" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="F45" s="20" t="s">
+      <c r="F45" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="G45" s="20" t="s">
+      <c r="G45" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="H45" s="20" t="s">
+      <c r="H45" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="I45" s="5"/>
+      <c r="I45" s="18"/>
     </row>
     <row r="46" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
@@ -4759,19 +4778,19 @@
       <c r="D46" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E46" s="20" t="s">
+      <c r="E46" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="F46" s="20" t="s">
+      <c r="F46" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="G46" s="20" t="s">
+      <c r="G46" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="H46" s="20" t="s">
+      <c r="H46" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="I46" s="5"/>
+      <c r="I46" s="18"/>
     </row>
     <row r="47" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
@@ -4786,19 +4805,19 @@
       <c r="D47" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E47" s="20" t="s">
+      <c r="E47" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="F47" s="20" t="s">
+      <c r="F47" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="G47" s="20" t="s">
+      <c r="G47" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="H47" s="20" t="s">
+      <c r="H47" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="I47" s="5"/>
+      <c r="I47" s="18"/>
     </row>
     <row r="48" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
@@ -4813,19 +4832,19 @@
       <c r="D48" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E48" s="20" t="s">
+      <c r="E48" s="18" t="s">
         <v>213</v>
       </c>
-      <c r="F48" s="20" t="s">
+      <c r="F48" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="G48" s="20" t="s">
+      <c r="G48" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="H48" s="20" t="s">
+      <c r="H48" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="I48" s="5"/>
+      <c r="I48" s="18"/>
     </row>
     <row r="49" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
@@ -4840,19 +4859,19 @@
       <c r="D49" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E49" s="20" t="s">
+      <c r="E49" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="F49" s="20" t="s">
+      <c r="F49" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="G49" s="20" t="s">
+      <c r="G49" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="H49" s="20" t="s">
+      <c r="H49" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="I49" s="5"/>
+      <c r="I49" s="18"/>
     </row>
     <row r="50" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
@@ -4867,19 +4886,19 @@
       <c r="D50" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E50" s="20" t="s">
+      <c r="E50" s="18" t="s">
         <v>219</v>
       </c>
-      <c r="F50" s="20" t="s">
+      <c r="F50" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="G50" s="20" t="s">
+      <c r="G50" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="H50" s="20" t="s">
+      <c r="H50" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="I50" s="5"/>
+      <c r="I50" s="18"/>
     </row>
     <row r="51" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
@@ -4894,19 +4913,19 @@
       <c r="D51" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E51" s="20" t="s">
+      <c r="E51" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="F51" s="20" t="s">
+      <c r="F51" s="18" t="s">
         <v>224</v>
       </c>
-      <c r="G51" s="20" t="s">
+      <c r="G51" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="H51" s="20" t="s">
+      <c r="H51" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="I51" s="5"/>
+      <c r="I51" s="18"/>
     </row>
     <row r="52" spans="1:9" ht="255" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
@@ -4921,19 +4940,19 @@
       <c r="D52" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="E52" s="20" t="s">
+      <c r="E52" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="F52" s="20" t="s">
+      <c r="F52" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="G52" s="20" t="s">
+      <c r="G52" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="H52" s="20" t="s">
+      <c r="H52" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="I52" s="5"/>
+      <c r="I52" s="18"/>
     </row>
     <row r="53" spans="1:9" ht="255" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
@@ -4948,21 +4967,21 @@
       <c r="D53" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="E53" s="20" t="s">
+      <c r="E53" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="F53" s="20" t="s">
+      <c r="F53" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="G53" s="20" t="s">
+      <c r="G53" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="H53" s="20" t="s">
+      <c r="H53" s="18" t="s">
         <v>235</v>
       </c>
-      <c r="I53" s="5"/>
-    </row>
-    <row r="54" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="I53" s="18"/>
+    </row>
+    <row r="54" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>236</v>
       </c>
@@ -4975,19 +4994,19 @@
       <c r="D54" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E54" s="20" t="s">
+      <c r="E54" s="18" t="s">
         <v>237</v>
       </c>
-      <c r="F54" s="20" t="s">
+      <c r="F54" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="G54" s="20" t="s">
+      <c r="G54" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="H54" s="20" t="s">
+      <c r="H54" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="I54" s="5" t="s">
+      <c r="I54" s="18" t="s">
         <v>239</v>
       </c>
     </row>
@@ -5004,19 +5023,19 @@
       <c r="D55" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="E55" s="20" t="s">
+      <c r="E55" s="18" t="s">
         <v>243</v>
       </c>
-      <c r="F55" s="20" t="s">
+      <c r="F55" s="18" t="s">
         <v>244</v>
       </c>
-      <c r="G55" s="23" t="s">
+      <c r="G55" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="H55" s="20" t="s">
+      <c r="H55" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="I55" s="5"/>
+      <c r="I55" s="18"/>
     </row>
     <row r="56" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
@@ -5031,19 +5050,19 @@
       <c r="D56" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="E56" s="20" t="s">
+      <c r="E56" s="18" t="s">
         <v>246</v>
       </c>
-      <c r="F56" s="20" t="s">
+      <c r="F56" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="G56" s="23" t="s">
+      <c r="G56" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="H56" s="20" t="s">
+      <c r="H56" s="18" t="s">
         <v>248</v>
       </c>
-      <c r="I56" s="5"/>
+      <c r="I56" s="18"/>
     </row>
     <row r="57" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
@@ -5058,19 +5077,19 @@
       <c r="D57" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E57" s="20" t="s">
+      <c r="E57" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="F57" s="20" t="s">
+      <c r="F57" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="G57" s="20" t="s">
+      <c r="G57" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="H57" s="20" t="s">
+      <c r="H57" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="I57" s="5" t="s">
+      <c r="I57" s="18" t="s">
         <v>239</v>
       </c>
     </row>
@@ -5087,19 +5106,19 @@
       <c r="D58" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E58" s="20" t="s">
+      <c r="E58" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="F58" s="20" t="s">
+      <c r="F58" s="18" t="s">
         <v>255</v>
       </c>
-      <c r="G58" s="20" t="s">
+      <c r="G58" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="H58" s="20" t="s">
+      <c r="H58" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="I58" s="5" t="s">
+      <c r="I58" s="18" t="s">
         <v>239</v>
       </c>
     </row>
@@ -5116,21 +5135,21 @@
       <c r="D59" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E59" s="20" t="s">
+      <c r="E59" s="18" t="s">
         <v>257</v>
       </c>
-      <c r="F59" s="20" t="s">
+      <c r="F59" s="18" t="s">
         <v>258</v>
       </c>
-      <c r="G59" s="20" t="s">
+      <c r="G59" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="H59" s="20" t="s">
+      <c r="H59" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="I59" s="5"/>
-    </row>
-    <row r="60" spans="1:9" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I59" s="18"/>
+    </row>
+    <row r="60" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>259</v>
       </c>
@@ -5143,19 +5162,19 @@
       <c r="D60" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E60" s="20" t="s">
+      <c r="E60" s="18" t="s">
         <v>260</v>
       </c>
-      <c r="F60" s="20" t="s">
+      <c r="F60" s="18" t="s">
         <v>261</v>
       </c>
-      <c r="G60" s="20" t="s">
+      <c r="G60" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="H60" s="20" t="s">
+      <c r="H60" s="18" t="s">
         <v>248</v>
       </c>
-      <c r="I60" s="5"/>
+      <c r="I60" s="18"/>
     </row>
     <row r="61" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
@@ -5170,19 +5189,19 @@
       <c r="D61" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E61" s="20" t="s">
+      <c r="E61" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="F61" s="20" t="s">
+      <c r="F61" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="G61" s="20" t="s">
+      <c r="G61" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="H61" s="20" t="s">
+      <c r="H61" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="I61" s="5"/>
+      <c r="I61" s="18"/>
     </row>
     <row r="62" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
@@ -5197,19 +5216,19 @@
       <c r="D62" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E62" s="20" t="s">
+      <c r="E62" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="F62" s="20" t="s">
+      <c r="F62" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="G62" s="20" t="s">
+      <c r="G62" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="H62" s="20" t="s">
+      <c r="H62" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="I62" s="5"/>
+      <c r="I62" s="18"/>
     </row>
     <row r="63" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
@@ -5224,19 +5243,19 @@
       <c r="D63" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E63" s="20" t="s">
+      <c r="E63" s="18" t="s">
         <v>269</v>
       </c>
-      <c r="F63" s="20" t="s">
+      <c r="F63" s="18" t="s">
         <v>270</v>
       </c>
-      <c r="G63" s="20" t="s">
+      <c r="G63" s="18" t="s">
         <v>271</v>
       </c>
-      <c r="H63" s="20" t="s">
+      <c r="H63" s="18" t="s">
         <v>272</v>
       </c>
-      <c r="I63" s="5"/>
+      <c r="I63" s="18"/>
     </row>
     <row r="64" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
@@ -5251,21 +5270,21 @@
       <c r="D64" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E64" s="20" t="s">
+      <c r="E64" s="18" t="s">
         <v>274</v>
       </c>
-      <c r="F64" s="20" t="s">
+      <c r="F64" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="G64" s="20" t="s">
+      <c r="G64" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="H64" s="20" t="s">
+      <c r="H64" s="18" t="s">
         <v>276</v>
       </c>
-      <c r="I64" s="5"/>
-    </row>
-    <row r="65" spans="1:9" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I64" s="18"/>
+    </row>
+    <row r="65" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>277</v>
       </c>
@@ -5278,21 +5297,21 @@
       <c r="D65" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="E65" s="20" t="s">
+      <c r="E65" s="18" t="s">
         <v>279</v>
       </c>
-      <c r="F65" s="20" t="s">
+      <c r="F65" s="18" t="s">
         <v>280</v>
       </c>
-      <c r="G65" s="20" t="s">
+      <c r="G65" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="H65" s="20" t="s">
+      <c r="H65" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="I65" s="5"/>
-    </row>
-    <row r="66" spans="1:9" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I65" s="18"/>
+    </row>
+    <row r="66" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>282</v>
       </c>
@@ -5305,19 +5324,19 @@
       <c r="D66" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="E66" s="20" t="s">
+      <c r="E66" s="18" t="s">
         <v>284</v>
       </c>
-      <c r="F66" s="20" t="s">
+      <c r="F66" s="18" t="s">
         <v>285</v>
       </c>
-      <c r="G66" s="20" t="s">
+      <c r="G66" s="18" t="s">
         <v>271</v>
       </c>
-      <c r="H66" s="20" t="s">
+      <c r="H66" s="18" t="s">
         <v>286</v>
       </c>
-      <c r="I66" s="5"/>
+      <c r="I66" s="18"/>
     </row>
     <row r="67" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
@@ -5332,21 +5351,23 @@
       <c r="D67" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E67" s="20" t="s">
+      <c r="E67" s="18" t="s">
         <v>288</v>
       </c>
-      <c r="F67" s="20" t="s">
+      <c r="F67" s="18" t="s">
         <v>289</v>
       </c>
-      <c r="G67" s="20" t="s">
+      <c r="G67" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="H67" s="20" t="s">
+      <c r="H67" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="I67" s="5"/>
-    </row>
-    <row r="68" spans="1:9" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I67" s="18" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>290</v>
       </c>
@@ -5359,19 +5380,19 @@
       <c r="D68" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E68" s="20" t="s">
+      <c r="E68" s="18" t="s">
         <v>291</v>
       </c>
-      <c r="F68" s="20" t="s">
+      <c r="F68" s="18" t="s">
         <v>292</v>
       </c>
-      <c r="G68" s="20" t="s">
+      <c r="G68" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="H68" s="20" t="s">
+      <c r="H68" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="I68" s="5" t="s">
+      <c r="I68" s="18" t="s">
         <v>293</v>
       </c>
     </row>
@@ -5388,19 +5409,19 @@
       <c r="D69" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E69" s="20" t="s">
+      <c r="E69" s="18" t="s">
         <v>295</v>
       </c>
-      <c r="F69" s="20" t="s">
+      <c r="F69" s="18" t="s">
         <v>296</v>
       </c>
-      <c r="G69" s="20" t="s">
+      <c r="G69" s="18" t="s">
         <v>297</v>
       </c>
-      <c r="H69" s="20" t="s">
+      <c r="H69" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="I69" s="5"/>
+      <c r="I69" s="18"/>
     </row>
     <row r="70" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
@@ -5415,17 +5436,17 @@
       <c r="D70" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E70" s="20" t="s">
+      <c r="E70" s="18" t="s">
         <v>300</v>
       </c>
-      <c r="F70" s="20" t="s">
+      <c r="F70" s="18" t="s">
         <v>301</v>
       </c>
-      <c r="G70" s="20"/>
-      <c r="H70" s="20" t="s">
+      <c r="G70" s="18"/>
+      <c r="H70" s="18" t="s">
         <v>302</v>
       </c>
-      <c r="I70" s="32" t="s">
+      <c r="I70" s="29" t="s">
         <v>303</v>
       </c>
     </row>
@@ -5442,17 +5463,17 @@
       <c r="D71" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E71" s="20" t="s">
+      <c r="E71" s="18" t="s">
         <v>305</v>
       </c>
-      <c r="F71" s="20" t="s">
+      <c r="F71" s="18" t="s">
         <v>306</v>
       </c>
-      <c r="G71" s="20"/>
-      <c r="H71" s="20" t="s">
+      <c r="G71" s="18"/>
+      <c r="H71" s="18" t="s">
         <v>307</v>
       </c>
-      <c r="I71" s="33"/>
+      <c r="I71" s="30"/>
     </row>
     <row r="72" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
@@ -5467,17 +5488,17 @@
       <c r="D72" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E72" s="20" t="s">
+      <c r="E72" s="18" t="s">
         <v>309</v>
       </c>
-      <c r="F72" s="20" t="s">
+      <c r="F72" s="18" t="s">
         <v>310</v>
       </c>
-      <c r="G72" s="20"/>
-      <c r="H72" s="20" t="s">
+      <c r="G72" s="18"/>
+      <c r="H72" s="18" t="s">
         <v>311</v>
       </c>
-      <c r="I72" s="34"/>
+      <c r="I72" s="31"/>
     </row>
     <row r="73" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
@@ -5492,17 +5513,17 @@
       <c r="D73" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E73" s="20" t="s">
+      <c r="E73" s="18" t="s">
         <v>313</v>
       </c>
-      <c r="F73" s="20" t="s">
+      <c r="F73" s="18" t="s">
         <v>314</v>
       </c>
-      <c r="G73" s="20"/>
-      <c r="H73" s="20" t="s">
+      <c r="G73" s="18"/>
+      <c r="H73" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="I73" s="5"/>
+      <c r="I73" s="18"/>
     </row>
     <row r="74" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
@@ -5517,17 +5538,17 @@
       <c r="D74" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E74" s="20" t="s">
+      <c r="E74" s="18" t="s">
         <v>316</v>
       </c>
-      <c r="F74" s="20" t="s">
+      <c r="F74" s="18" t="s">
         <v>317</v>
       </c>
-      <c r="G74" s="20"/>
-      <c r="H74" s="20" t="s">
+      <c r="G74" s="18"/>
+      <c r="H74" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="I74" s="5"/>
+      <c r="I74" s="18"/>
     </row>
     <row r="75" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
@@ -5542,17 +5563,17 @@
       <c r="D75" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E75" s="20" t="s">
+      <c r="E75" s="18" t="s">
         <v>319</v>
       </c>
-      <c r="F75" s="20" t="s">
+      <c r="F75" s="18" t="s">
         <v>320</v>
       </c>
-      <c r="G75" s="20"/>
-      <c r="H75" s="20" t="s">
+      <c r="G75" s="18"/>
+      <c r="H75" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="I75" s="5"/>
+      <c r="I75" s="18"/>
     </row>
     <row r="76" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
@@ -5567,19 +5588,19 @@
       <c r="D76" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E76" s="20" t="s">
+      <c r="E76" s="18" t="s">
         <v>322</v>
       </c>
-      <c r="F76" s="20" t="s">
+      <c r="F76" s="18" t="s">
         <v>323</v>
       </c>
-      <c r="G76" s="20" t="s">
+      <c r="G76" s="18" t="s">
         <v>271</v>
       </c>
-      <c r="H76" s="20" t="s">
+      <c r="H76" s="18" t="s">
         <v>324</v>
       </c>
-      <c r="I76" s="5"/>
+      <c r="I76" s="18"/>
     </row>
     <row r="77" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
@@ -5594,17 +5615,17 @@
       <c r="D77" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E77" s="20" t="s">
+      <c r="E77" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="F77" s="20" t="s">
+      <c r="F77" s="18" t="s">
         <v>327</v>
       </c>
-      <c r="G77" s="20"/>
-      <c r="H77" s="20" t="s">
+      <c r="G77" s="18"/>
+      <c r="H77" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="I77" s="5"/>
+      <c r="I77" s="18"/>
     </row>
     <row r="78" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
@@ -5619,17 +5640,17 @@
       <c r="D78" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E78" s="20" t="s">
+      <c r="E78" s="18" t="s">
         <v>329</v>
       </c>
-      <c r="F78" s="20" t="s">
+      <c r="F78" s="18" t="s">
         <v>330</v>
       </c>
-      <c r="G78" s="20"/>
-      <c r="H78" s="20" t="s">
+      <c r="G78" s="18"/>
+      <c r="H78" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="I78" s="5"/>
+      <c r="I78" s="18"/>
     </row>
     <row r="79" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
@@ -5644,17 +5665,17 @@
       <c r="D79" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E79" s="20" t="s">
+      <c r="E79" s="18" t="s">
         <v>332</v>
       </c>
-      <c r="F79" s="20" t="s">
+      <c r="F79" s="18" t="s">
         <v>333</v>
       </c>
-      <c r="G79" s="20"/>
-      <c r="H79" s="20" t="s">
+      <c r="G79" s="18"/>
+      <c r="H79" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="I79" s="5"/>
+      <c r="I79" s="18"/>
     </row>
     <row r="80" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
@@ -5669,17 +5690,17 @@
       <c r="D80" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E80" s="20" t="s">
+      <c r="E80" s="18" t="s">
         <v>335</v>
       </c>
-      <c r="F80" s="20" t="s">
+      <c r="F80" s="18" t="s">
         <v>336</v>
       </c>
-      <c r="G80" s="20"/>
-      <c r="H80" s="20" t="s">
+      <c r="G80" s="18"/>
+      <c r="H80" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="I80" s="5"/>
+      <c r="I80" s="18"/>
     </row>
     <row r="81" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
@@ -5694,22 +5715,22 @@
       <c r="D81" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E81" s="20" t="s">
+      <c r="E81" s="18" t="s">
         <v>338</v>
       </c>
-      <c r="F81" s="20" t="s">
+      <c r="F81" s="18" t="s">
         <v>339</v>
       </c>
-      <c r="G81" s="20" t="s">
+      <c r="G81" s="18" t="s">
         <v>271</v>
       </c>
-      <c r="H81" s="20" t="s">
+      <c r="H81" s="18" t="s">
         <v>340</v>
       </c>
-      <c r="I81" s="5"/>
+      <c r="I81" s="18"/>
     </row>
     <row r="82" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A82" s="13" t="s">
+      <c r="A82" s="11" t="s">
         <v>341</v>
       </c>
       <c r="B82" s="3" t="s">
@@ -5721,20 +5742,20 @@
       <c r="D82" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E82" s="20" t="s">
+      <c r="E82" s="18" t="s">
         <v>342</v>
       </c>
-      <c r="F82" s="20" t="s">
+      <c r="F82" s="18" t="s">
         <v>343</v>
       </c>
-      <c r="G82" s="20"/>
-      <c r="H82" s="20" t="s">
+      <c r="G82" s="18"/>
+      <c r="H82" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="I82" s="5"/>
+      <c r="I82" s="18"/>
     </row>
     <row r="83" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A83" s="13" t="s">
+      <c r="A83" s="11" t="s">
         <v>344</v>
       </c>
       <c r="B83" s="3" t="s">
@@ -5746,20 +5767,20 @@
       <c r="D83" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E83" s="20" t="s">
+      <c r="E83" s="18" t="s">
         <v>345</v>
       </c>
-      <c r="F83" s="20" t="s">
+      <c r="F83" s="18" t="s">
         <v>346</v>
       </c>
-      <c r="G83" s="20"/>
-      <c r="H83" s="20" t="s">
+      <c r="G83" s="18"/>
+      <c r="H83" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="I83" s="5"/>
+      <c r="I83" s="18"/>
     </row>
     <row r="84" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A84" s="13" t="s">
+      <c r="A84" s="11" t="s">
         <v>347</v>
       </c>
       <c r="B84" s="3" t="s">
@@ -5771,20 +5792,20 @@
       <c r="D84" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E84" s="20" t="s">
+      <c r="E84" s="18" t="s">
         <v>348</v>
       </c>
-      <c r="F84" s="20" t="s">
+      <c r="F84" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="G84" s="20"/>
-      <c r="H84" s="20" t="s">
+      <c r="G84" s="18"/>
+      <c r="H84" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="I84" s="5"/>
+      <c r="I84" s="18"/>
     </row>
     <row r="85" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A85" s="13" t="s">
+      <c r="A85" s="11" t="s">
         <v>350</v>
       </c>
       <c r="B85" s="3" t="s">
@@ -5796,22 +5817,22 @@
       <c r="D85" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E85" s="20" t="s">
+      <c r="E85" s="18" t="s">
         <v>351</v>
       </c>
-      <c r="F85" s="20" t="s">
+      <c r="F85" s="18" t="s">
         <v>352</v>
       </c>
-      <c r="G85" s="20"/>
-      <c r="H85" s="20" t="s">
+      <c r="G85" s="18"/>
+      <c r="H85" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="I85" s="5" t="s">
+      <c r="I85" s="18" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A86" s="13" t="s">
+      <c r="A86" s="11" t="s">
         <v>354</v>
       </c>
       <c r="B86" s="3" t="s">
@@ -5823,20 +5844,20 @@
       <c r="D86" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E86" s="20" t="s">
+      <c r="E86" s="18" t="s">
         <v>355</v>
       </c>
-      <c r="F86" s="20" t="s">
+      <c r="F86" s="18" t="s">
         <v>356</v>
       </c>
-      <c r="G86" s="20"/>
-      <c r="H86" s="20" t="s">
+      <c r="G86" s="18"/>
+      <c r="H86" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="I86" s="5"/>
+      <c r="I86" s="18"/>
     </row>
     <row r="87" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A87" s="13" t="s">
+      <c r="A87" s="11" t="s">
         <v>357</v>
       </c>
       <c r="B87" s="3" t="s">
@@ -5848,22 +5869,22 @@
       <c r="D87" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="E87" s="20" t="s">
+      <c r="E87" s="18" t="s">
         <v>358</v>
       </c>
-      <c r="F87" s="20" t="s">
+      <c r="F87" s="18" t="s">
         <v>359</v>
       </c>
-      <c r="G87" s="20" t="s">
+      <c r="G87" s="18" t="s">
         <v>271</v>
       </c>
-      <c r="H87" s="20" t="s">
+      <c r="H87" s="18" t="s">
         <v>360</v>
       </c>
-      <c r="I87" s="5"/>
+      <c r="I87" s="18"/>
     </row>
     <row r="88" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A88" s="13" t="s">
+      <c r="A88" s="11" t="s">
         <v>361</v>
       </c>
       <c r="B88" s="3" t="s">
@@ -5875,17 +5896,17 @@
       <c r="D88" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="E88" s="20" t="s">
+      <c r="E88" s="18" t="s">
         <v>362</v>
       </c>
-      <c r="F88" s="20" t="s">
+      <c r="F88" s="18" t="s">
         <v>363</v>
       </c>
-      <c r="G88" s="20"/>
-      <c r="H88" s="20" t="s">
+      <c r="G88" s="18"/>
+      <c r="H88" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="I88" s="5"/>
+      <c r="I88" s="18"/>
     </row>
     <row r="89" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
@@ -5900,18 +5921,18 @@
       <c r="D89" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E89" s="20" t="s">
+      <c r="E89" s="18" t="s">
         <v>365</v>
       </c>
-      <c r="F89" s="20" t="s">
+      <c r="F89" s="18" t="s">
         <v>366</v>
       </c>
-      <c r="G89" s="20"/>
-      <c r="H89" s="20" t="s">
+      <c r="G89" s="18"/>
+      <c r="H89" s="18" t="s">
         <v>367</v>
       </c>
-      <c r="I89" s="5" t="s">
-        <v>682</v>
+      <c r="I89" s="18" t="s">
+        <v>672</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -5927,21 +5948,23 @@
       <c r="D90" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E90" s="21" t="s">
+      <c r="E90" s="19" t="s">
+        <v>688</v>
+      </c>
+      <c r="F90" s="19" t="s">
         <v>369</v>
       </c>
-      <c r="F90" s="21" t="s">
+      <c r="G90" s="18"/>
+      <c r="H90" s="18" t="s">
         <v>370</v>
       </c>
-      <c r="G90" s="20"/>
-      <c r="H90" s="20" t="s">
-        <v>371</v>
-      </c>
-      <c r="I90" s="5"/>
+      <c r="I90" s="18" t="s">
+        <v>700</v>
+      </c>
     </row>
     <row r="91" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>10</v>
@@ -5952,25 +5975,25 @@
       <c r="D91" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E91" s="20" t="s">
+      <c r="E91" s="18" t="s">
+        <v>372</v>
+      </c>
+      <c r="F91" s="19" t="s">
         <v>373</v>
       </c>
-      <c r="F91" s="21" t="s">
+      <c r="G91" s="18" t="s">
         <v>374</v>
       </c>
-      <c r="G91" s="20" t="s">
+      <c r="H91" s="18" t="s">
         <v>375</v>
       </c>
-      <c r="H91" s="20" t="s">
+      <c r="I91" s="18" t="s">
         <v>376</v>
-      </c>
-      <c r="I91" s="5" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>43</v>
@@ -5981,25 +6004,25 @@
       <c r="D92" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E92" s="21" t="s">
+      <c r="E92" s="19" t="s">
+        <v>378</v>
+      </c>
+      <c r="F92" s="19" t="s">
         <v>379</v>
       </c>
-      <c r="F92" s="21" t="s">
+      <c r="G92" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="H92" s="18" t="s">
         <v>380</v>
       </c>
-      <c r="G92" s="20" t="s">
-        <v>297</v>
-      </c>
-      <c r="H92" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="I92" s="5" t="s">
-        <v>377</v>
+      <c r="I92" s="18" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>43</v>
@@ -6010,25 +6033,25 @@
       <c r="D93" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E93" s="21" t="s">
+      <c r="E93" s="19" t="s">
+        <v>382</v>
+      </c>
+      <c r="F93" s="19" t="s">
         <v>383</v>
       </c>
-      <c r="F93" s="21" t="s">
+      <c r="G93" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="H93" s="18" t="s">
         <v>384</v>
       </c>
-      <c r="G93" s="20" t="s">
-        <v>297</v>
-      </c>
-      <c r="H93" s="20" t="s">
+      <c r="I93" s="18" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A94" s="11" t="s">
         <v>385</v>
-      </c>
-      <c r="I93" s="5" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A94" s="13" t="s">
-        <v>386</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>43</v>
@@ -6039,21 +6062,21 @@
       <c r="D94" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E94" s="20" t="s">
+      <c r="E94" s="18" t="s">
+        <v>386</v>
+      </c>
+      <c r="F94" s="18" t="s">
         <v>387</v>
       </c>
-      <c r="F94" s="20" t="s">
+      <c r="G94" s="18"/>
+      <c r="H94" s="18" t="s">
         <v>388</v>
       </c>
-      <c r="G94" s="20"/>
-      <c r="H94" s="20" t="s">
+      <c r="I94" s="18"/>
+    </row>
+    <row r="95" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A95" s="11" t="s">
         <v>389</v>
-      </c>
-      <c r="I94" s="5"/>
-    </row>
-    <row r="95" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A95" s="13" t="s">
-        <v>390</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>43</v>
@@ -6064,21 +6087,21 @@
       <c r="D95" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E95" s="20" t="s">
+      <c r="E95" s="18" t="s">
+        <v>390</v>
+      </c>
+      <c r="F95" s="18" t="s">
         <v>391</v>
       </c>
-      <c r="F95" s="20" t="s">
+      <c r="G95" s="18"/>
+      <c r="H95" s="18" t="s">
+        <v>388</v>
+      </c>
+      <c r="I95" s="18"/>
+    </row>
+    <row r="96" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A96" s="11" t="s">
         <v>392</v>
-      </c>
-      <c r="G95" s="20"/>
-      <c r="H95" s="20" t="s">
-        <v>389</v>
-      </c>
-      <c r="I95" s="5"/>
-    </row>
-    <row r="96" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A96" s="13" t="s">
-        <v>393</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>43</v>
@@ -6089,21 +6112,21 @@
       <c r="D96" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E96" s="20" t="s">
+      <c r="E96" s="18" t="s">
+        <v>393</v>
+      </c>
+      <c r="F96" s="18" t="s">
         <v>394</v>
       </c>
-      <c r="F96" s="20" t="s">
+      <c r="G96" s="18"/>
+      <c r="H96" s="18" t="s">
+        <v>388</v>
+      </c>
+      <c r="I96" s="18"/>
+    </row>
+    <row r="97" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A97" s="11" t="s">
         <v>395</v>
-      </c>
-      <c r="G96" s="20"/>
-      <c r="H96" s="20" t="s">
-        <v>389</v>
-      </c>
-      <c r="I96" s="5"/>
-    </row>
-    <row r="97" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A97" s="13" t="s">
-        <v>396</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>43</v>
@@ -6114,21 +6137,21 @@
       <c r="D97" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E97" s="20" t="s">
+      <c r="E97" s="18" t="s">
+        <v>396</v>
+      </c>
+      <c r="F97" s="18" t="s">
         <v>397</v>
       </c>
-      <c r="F97" s="20" t="s">
+      <c r="G97" s="18"/>
+      <c r="H97" s="18" t="s">
+        <v>388</v>
+      </c>
+      <c r="I97" s="18"/>
+    </row>
+    <row r="98" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A98" s="11" t="s">
         <v>398</v>
-      </c>
-      <c r="G97" s="20"/>
-      <c r="H97" s="20" t="s">
-        <v>389</v>
-      </c>
-      <c r="I97" s="5"/>
-    </row>
-    <row r="98" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A98" s="13" t="s">
-        <v>399</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>43</v>
@@ -6139,21 +6162,21 @@
       <c r="D98" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E98" s="20" t="s">
+      <c r="E98" s="18" t="s">
+        <v>399</v>
+      </c>
+      <c r="F98" s="18" t="s">
         <v>400</v>
       </c>
-      <c r="F98" s="20" t="s">
+      <c r="G98" s="18"/>
+      <c r="H98" s="18" t="s">
+        <v>388</v>
+      </c>
+      <c r="I98" s="18"/>
+    </row>
+    <row r="99" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A99" s="11" t="s">
         <v>401</v>
-      </c>
-      <c r="G98" s="20"/>
-      <c r="H98" s="20" t="s">
-        <v>389</v>
-      </c>
-      <c r="I98" s="5"/>
-    </row>
-    <row r="99" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A99" s="13" t="s">
-        <v>402</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>43</v>
@@ -6164,21 +6187,21 @@
       <c r="D99" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E99" s="20" t="s">
+      <c r="E99" s="18" t="s">
+        <v>402</v>
+      </c>
+      <c r="F99" s="18" t="s">
         <v>403</v>
       </c>
-      <c r="F99" s="20" t="s">
+      <c r="G99" s="18"/>
+      <c r="H99" s="18" t="s">
+        <v>388</v>
+      </c>
+      <c r="I99" s="18"/>
+    </row>
+    <row r="100" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A100" s="11" t="s">
         <v>404</v>
-      </c>
-      <c r="G99" s="20"/>
-      <c r="H99" s="20" t="s">
-        <v>389</v>
-      </c>
-      <c r="I99" s="5"/>
-    </row>
-    <row r="100" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A100" s="13" t="s">
-        <v>405</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>146</v>
@@ -6187,23 +6210,23 @@
         <v>5100</v>
       </c>
       <c r="D100" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="E100" s="18" t="s">
         <v>406</v>
       </c>
-      <c r="E100" s="20" t="s">
+      <c r="F100" s="18" t="s">
         <v>407</v>
       </c>
-      <c r="F100" s="20" t="s">
+      <c r="G100" s="18"/>
+      <c r="H100" s="18" t="s">
+        <v>388</v>
+      </c>
+      <c r="I100" s="18"/>
+    </row>
+    <row r="101" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A101" s="11" t="s">
         <v>408</v>
-      </c>
-      <c r="G100" s="20"/>
-      <c r="H100" s="20" t="s">
-        <v>389</v>
-      </c>
-      <c r="I100" s="5"/>
-    </row>
-    <row r="101" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A101" s="13" t="s">
-        <v>409</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>146</v>
@@ -6212,23 +6235,23 @@
         <v>5100</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="E101" s="20" t="s">
+        <v>405</v>
+      </c>
+      <c r="E101" s="18" t="s">
+        <v>409</v>
+      </c>
+      <c r="F101" s="18" t="s">
         <v>410</v>
       </c>
-      <c r="F101" s="20" t="s">
+      <c r="G101" s="18"/>
+      <c r="H101" s="18" t="s">
+        <v>388</v>
+      </c>
+      <c r="I101" s="18"/>
+    </row>
+    <row r="102" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A102" s="11" t="s">
         <v>411</v>
-      </c>
-      <c r="G101" s="20"/>
-      <c r="H101" s="20" t="s">
-        <v>389</v>
-      </c>
-      <c r="I101" s="5"/>
-    </row>
-    <row r="102" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A102" s="13" t="s">
-        <v>412</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>43</v>
@@ -6239,21 +6262,21 @@
       <c r="D102" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E102" s="20" t="s">
+      <c r="E102" s="18" t="s">
+        <v>412</v>
+      </c>
+      <c r="F102" s="18" t="s">
         <v>413</v>
       </c>
-      <c r="F102" s="20" t="s">
+      <c r="G102" s="18"/>
+      <c r="H102" s="18" t="s">
+        <v>388</v>
+      </c>
+      <c r="I102" s="18"/>
+    </row>
+    <row r="103" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="A103" s="11" t="s">
         <v>414</v>
-      </c>
-      <c r="G102" s="20"/>
-      <c r="H102" s="20" t="s">
-        <v>389</v>
-      </c>
-      <c r="I102" s="5"/>
-    </row>
-    <row r="103" spans="1:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="A103" s="13" t="s">
-        <v>415</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>43</v>
@@ -6264,21 +6287,21 @@
       <c r="D103" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E103" s="20" t="s">
+      <c r="E103" s="18" t="s">
+        <v>415</v>
+      </c>
+      <c r="F103" s="18" t="s">
         <v>416</v>
       </c>
-      <c r="F103" s="20" t="s">
+      <c r="G103" s="18"/>
+      <c r="H103" s="18" t="s">
+        <v>388</v>
+      </c>
+      <c r="I103" s="18"/>
+    </row>
+    <row r="104" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A104" s="11" t="s">
         <v>417</v>
-      </c>
-      <c r="G103" s="20"/>
-      <c r="H103" s="20" t="s">
-        <v>389</v>
-      </c>
-      <c r="I103" s="5"/>
-    </row>
-    <row r="104" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A104" s="13" t="s">
-        <v>418</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>43</v>
@@ -6289,21 +6312,21 @@
       <c r="D104" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E104" s="20" t="s">
+      <c r="E104" s="18" t="s">
+        <v>418</v>
+      </c>
+      <c r="F104" s="18" t="s">
         <v>419</v>
       </c>
-      <c r="F104" s="20" t="s">
+      <c r="G104" s="18"/>
+      <c r="H104" s="18" t="s">
         <v>420</v>
       </c>
-      <c r="G104" s="20"/>
-      <c r="H104" s="20" t="s">
+      <c r="I104" s="18"/>
+    </row>
+    <row r="105" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A105" s="11" t="s">
         <v>421</v>
-      </c>
-      <c r="I104" s="5"/>
-    </row>
-    <row r="105" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A105" s="13" t="s">
-        <v>422</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>43</v>
@@ -6314,21 +6337,21 @@
       <c r="D105" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E105" s="20" t="s">
+      <c r="E105" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="F105" s="18" t="s">
         <v>423</v>
       </c>
-      <c r="F105" s="20" t="s">
+      <c r="G105" s="18"/>
+      <c r="H105" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="I105" s="18"/>
+    </row>
+    <row r="106" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A106" s="11" t="s">
         <v>424</v>
-      </c>
-      <c r="G105" s="20"/>
-      <c r="H105" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="I105" s="5"/>
-    </row>
-    <row r="106" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A106" s="13" t="s">
-        <v>425</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>43</v>
@@ -6339,21 +6362,21 @@
       <c r="D106" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E106" s="6" t="s">
+      <c r="E106" s="18" t="s">
+        <v>425</v>
+      </c>
+      <c r="F106" s="18" t="s">
         <v>426</v>
       </c>
-      <c r="F106" s="6" t="s">
+      <c r="G106" s="18"/>
+      <c r="H106" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="I106" s="18"/>
+    </row>
+    <row r="107" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A107" s="11" t="s">
         <v>427</v>
-      </c>
-      <c r="G106" s="20"/>
-      <c r="H106" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="I106" s="5"/>
-    </row>
-    <row r="107" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A107" s="13" t="s">
-        <v>428</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>43</v>
@@ -6364,21 +6387,21 @@
       <c r="D107" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E107" s="20" t="s">
+      <c r="E107" s="18" t="s">
+        <v>428</v>
+      </c>
+      <c r="F107" s="18" t="s">
         <v>429</v>
       </c>
-      <c r="F107" s="20" t="s">
+      <c r="G107" s="18"/>
+      <c r="H107" s="18" t="s">
         <v>430</v>
       </c>
-      <c r="G107" s="20"/>
-      <c r="H107" s="20" t="s">
+      <c r="I107" s="18"/>
+    </row>
+    <row r="108" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A108" s="11" t="s">
         <v>431</v>
-      </c>
-      <c r="I107" s="5"/>
-    </row>
-    <row r="108" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A108" s="13" t="s">
-        <v>432</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>10</v>
@@ -6389,23 +6412,23 @@
       <c r="D108" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E108" s="20" t="s">
-        <v>684</v>
-      </c>
-      <c r="F108" s="20" t="s">
+      <c r="E108" s="18" t="s">
+        <v>674</v>
+      </c>
+      <c r="F108" s="18" t="s">
+        <v>432</v>
+      </c>
+      <c r="G108" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="H108" s="18" t="s">
         <v>433</v>
       </c>
-      <c r="G108" s="20" t="s">
-        <v>271</v>
-      </c>
-      <c r="H108" s="20" t="s">
+      <c r="I108" s="18"/>
+    </row>
+    <row r="109" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A109" s="11" t="s">
         <v>434</v>
-      </c>
-      <c r="I108" s="5"/>
-    </row>
-    <row r="109" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A109" s="13" t="s">
-        <v>435</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>36</v>
@@ -6416,21 +6439,21 @@
       <c r="D109" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E109" s="20" t="s">
+      <c r="E109" s="18" t="s">
+        <v>435</v>
+      </c>
+      <c r="F109" s="18" t="s">
         <v>436</v>
       </c>
-      <c r="F109" s="20" t="s">
+      <c r="G109" s="18"/>
+      <c r="H109" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="I109" s="18"/>
+    </row>
+    <row r="110" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A110" s="11" t="s">
         <v>437</v>
-      </c>
-      <c r="G109" s="20"/>
-      <c r="H109" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="I109" s="5"/>
-    </row>
-    <row r="110" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A110" s="13" t="s">
-        <v>438</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>36</v>
@@ -6441,21 +6464,23 @@
       <c r="D110" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E110" s="20" t="s">
+      <c r="E110" s="18" t="s">
+        <v>692</v>
+      </c>
+      <c r="F110" s="18" t="s">
+        <v>438</v>
+      </c>
+      <c r="G110" s="18"/>
+      <c r="H110" s="18" t="s">
+        <v>388</v>
+      </c>
+      <c r="I110" s="18" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A111" s="11" t="s">
         <v>439</v>
-      </c>
-      <c r="F110" s="20" t="s">
-        <v>440</v>
-      </c>
-      <c r="G110" s="20"/>
-      <c r="H110" s="20" t="s">
-        <v>389</v>
-      </c>
-      <c r="I110" s="5"/>
-    </row>
-    <row r="111" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A111" s="13" t="s">
-        <v>441</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>10</v>
@@ -6466,23 +6491,23 @@
       <c r="D111" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E111" s="20" t="s">
+      <c r="E111" s="18" t="s">
+        <v>440</v>
+      </c>
+      <c r="F111" s="18" t="s">
+        <v>441</v>
+      </c>
+      <c r="G111" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="H111" s="18" t="s">
         <v>442</v>
       </c>
-      <c r="F111" s="20" t="s">
+      <c r="I111" s="18"/>
+    </row>
+    <row r="112" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A112" s="11" t="s">
         <v>443</v>
-      </c>
-      <c r="G111" s="20" t="s">
-        <v>271</v>
-      </c>
-      <c r="H111" s="20" t="s">
-        <v>444</v>
-      </c>
-      <c r="I111" s="5"/>
-    </row>
-    <row r="112" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A112" s="13" t="s">
-        <v>445</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>43</v>
@@ -6493,21 +6518,21 @@
       <c r="D112" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E112" s="20" t="s">
+      <c r="E112" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="F112" s="19" t="s">
+        <v>445</v>
+      </c>
+      <c r="G112" s="18"/>
+      <c r="H112" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="I112" s="18"/>
+    </row>
+    <row r="113" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A113" s="11" t="s">
         <v>446</v>
-      </c>
-      <c r="F112" s="21" t="s">
-        <v>447</v>
-      </c>
-      <c r="G112" s="20"/>
-      <c r="H112" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="I112" s="5"/>
-    </row>
-    <row r="113" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A113" s="13" t="s">
-        <v>448</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>17</v>
@@ -6518,23 +6543,23 @@
       <c r="D113" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="E113" s="20" t="s">
+      <c r="E113" s="18" t="s">
+        <v>447</v>
+      </c>
+      <c r="F113" s="19" t="s">
+        <v>448</v>
+      </c>
+      <c r="G113" s="18"/>
+      <c r="H113" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="I113" s="18" t="s">
         <v>449</v>
       </c>
-      <c r="F113" s="21" t="s">
+    </row>
+    <row r="114" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A114" s="11" t="s">
         <v>450</v>
-      </c>
-      <c r="G113" s="20"/>
-      <c r="H113" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="I113" s="5" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A114" s="13" t="s">
-        <v>452</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>36</v>
@@ -6545,21 +6570,21 @@
       <c r="D114" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E114" s="20" t="s">
+      <c r="E114" s="18" t="s">
+        <v>451</v>
+      </c>
+      <c r="F114" s="18" t="s">
+        <v>452</v>
+      </c>
+      <c r="G114" s="18"/>
+      <c r="H114" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="I114" s="18"/>
+    </row>
+    <row r="115" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A115" s="11" t="s">
         <v>453</v>
-      </c>
-      <c r="F114" s="20" t="s">
-        <v>454</v>
-      </c>
-      <c r="G114" s="20"/>
-      <c r="H114" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="I114" s="5"/>
-    </row>
-    <row r="115" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A115" s="13" t="s">
-        <v>455</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>43</v>
@@ -6570,21 +6595,21 @@
       <c r="D115" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E115" s="20" t="s">
+      <c r="E115" s="18" t="s">
+        <v>454</v>
+      </c>
+      <c r="F115" s="18" t="s">
+        <v>455</v>
+      </c>
+      <c r="G115" s="18"/>
+      <c r="H115" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="I115" s="18"/>
+    </row>
+    <row r="116" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A116" s="11" t="s">
         <v>456</v>
-      </c>
-      <c r="F115" s="20" t="s">
-        <v>457</v>
-      </c>
-      <c r="G115" s="20"/>
-      <c r="H115" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="I115" s="5"/>
-    </row>
-    <row r="116" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A116" s="13" t="s">
-        <v>458</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>28</v>
@@ -6595,21 +6620,21 @@
       <c r="D116" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="E116" s="20" t="s">
+      <c r="E116" s="18" t="s">
+        <v>457</v>
+      </c>
+      <c r="F116" s="18" t="s">
+        <v>458</v>
+      </c>
+      <c r="G116" s="18"/>
+      <c r="H116" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="I116" s="18"/>
+    </row>
+    <row r="117" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A117" s="11" t="s">
         <v>459</v>
-      </c>
-      <c r="F116" s="20" t="s">
-        <v>460</v>
-      </c>
-      <c r="G116" s="20"/>
-      <c r="H116" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="I116" s="5"/>
-    </row>
-    <row r="117" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A117" s="13" t="s">
-        <v>461</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>43</v>
@@ -6620,21 +6645,21 @@
       <c r="D117" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E117" s="20" t="s">
+      <c r="E117" s="18" t="s">
+        <v>460</v>
+      </c>
+      <c r="F117" s="18" t="s">
+        <v>461</v>
+      </c>
+      <c r="G117" s="18"/>
+      <c r="H117" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="I117" s="18"/>
+    </row>
+    <row r="118" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A118" s="11" t="s">
         <v>462</v>
-      </c>
-      <c r="F117" s="20" t="s">
-        <v>463</v>
-      </c>
-      <c r="G117" s="20"/>
-      <c r="H117" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="I117" s="5"/>
-    </row>
-    <row r="118" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A118" s="13" t="s">
-        <v>464</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>43</v>
@@ -6645,21 +6670,21 @@
       <c r="D118" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E118" s="20" t="s">
+      <c r="E118" s="18" t="s">
+        <v>463</v>
+      </c>
+      <c r="F118" s="18" t="s">
+        <v>464</v>
+      </c>
+      <c r="G118" s="18"/>
+      <c r="H118" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="I118" s="18"/>
+    </row>
+    <row r="119" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A119" s="11" t="s">
         <v>465</v>
-      </c>
-      <c r="F118" s="20" t="s">
-        <v>466</v>
-      </c>
-      <c r="G118" s="20"/>
-      <c r="H118" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="I118" s="5"/>
-    </row>
-    <row r="119" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A119" s="13" t="s">
-        <v>467</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>43</v>
@@ -6670,21 +6695,21 @@
       <c r="D119" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E119" s="20" t="s">
+      <c r="E119" s="18" t="s">
+        <v>466</v>
+      </c>
+      <c r="F119" s="18" t="s">
+        <v>467</v>
+      </c>
+      <c r="G119" s="18"/>
+      <c r="H119" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="I119" s="18"/>
+    </row>
+    <row r="120" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A120" s="11" t="s">
         <v>468</v>
-      </c>
-      <c r="F119" s="20" t="s">
-        <v>469</v>
-      </c>
-      <c r="G119" s="20"/>
-      <c r="H119" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="I119" s="5"/>
-    </row>
-    <row r="120" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A120" s="13" t="s">
-        <v>470</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>43</v>
@@ -6695,21 +6720,21 @@
       <c r="D120" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E120" s="20" t="s">
+      <c r="E120" s="18" t="s">
+        <v>469</v>
+      </c>
+      <c r="F120" s="18" t="s">
+        <v>470</v>
+      </c>
+      <c r="G120" s="18"/>
+      <c r="H120" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="I120" s="18"/>
+    </row>
+    <row r="121" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="A121" s="11" t="s">
         <v>471</v>
-      </c>
-      <c r="F120" s="20" t="s">
-        <v>472</v>
-      </c>
-      <c r="G120" s="20"/>
-      <c r="H120" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="I120" s="5"/>
-    </row>
-    <row r="121" spans="1:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="A121" s="13" t="s">
-        <v>473</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>43</v>
@@ -6720,21 +6745,21 @@
       <c r="D121" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E121" s="20" t="s">
+      <c r="E121" s="18" t="s">
+        <v>472</v>
+      </c>
+      <c r="F121" s="18" t="s">
+        <v>473</v>
+      </c>
+      <c r="G121" s="18"/>
+      <c r="H121" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="I121" s="18"/>
+    </row>
+    <row r="122" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="A122" s="11" t="s">
         <v>474</v>
-      </c>
-      <c r="F121" s="20" t="s">
-        <v>475</v>
-      </c>
-      <c r="G121" s="20"/>
-      <c r="H121" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="I121" s="5"/>
-    </row>
-    <row r="122" spans="1:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="A122" s="13" t="s">
-        <v>476</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>43</v>
@@ -6743,23 +6768,23 @@
         <v>4000</v>
       </c>
       <c r="D122" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="E122" s="18" t="s">
+        <v>476</v>
+      </c>
+      <c r="F122" s="18" t="s">
         <v>477</v>
       </c>
-      <c r="E122" s="20" t="s">
+      <c r="G122" s="18"/>
+      <c r="H122" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="I122" s="18"/>
+    </row>
+    <row r="123" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A123" s="11" t="s">
         <v>478</v>
-      </c>
-      <c r="F122" s="20" t="s">
-        <v>479</v>
-      </c>
-      <c r="G122" s="20"/>
-      <c r="H122" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="I122" s="5"/>
-    </row>
-    <row r="123" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A123" s="13" t="s">
-        <v>480</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>43</v>
@@ -6768,75 +6793,75 @@
         <v>4000</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="E123" s="20" t="s">
+        <v>475</v>
+      </c>
+      <c r="E123" s="18" t="s">
+        <v>479</v>
+      </c>
+      <c r="F123" s="18" t="s">
+        <v>480</v>
+      </c>
+      <c r="G123" s="18"/>
+      <c r="H123" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="I123" s="18" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A124" s="11" t="s">
         <v>481</v>
       </c>
-      <c r="F123" s="20" t="s">
+      <c r="B124" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="G123" s="20"/>
-      <c r="H123" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="I123" s="5" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A124" s="13" t="s">
+      <c r="C124" s="12" t="s">
         <v>483</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="D124" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="C124" s="14" t="s">
+      <c r="E124" s="18" t="s">
         <v>485</v>
       </c>
-      <c r="D124" s="2" t="s">
+      <c r="F124" s="18" t="s">
         <v>486</v>
       </c>
-      <c r="E124" s="20" t="s">
+      <c r="G124" s="18"/>
+      <c r="H124" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="I124" s="18"/>
+    </row>
+    <row r="125" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A125" s="11" t="s">
         <v>487</v>
       </c>
-      <c r="F124" s="20" t="s">
+      <c r="B125" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="C125" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="E125" s="18" t="s">
         <v>488</v>
       </c>
-      <c r="G124" s="20"/>
-      <c r="H124" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="I124" s="5"/>
-    </row>
-    <row r="125" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A125" s="13" t="s">
+      <c r="F125" s="18" t="s">
         <v>489</v>
       </c>
-      <c r="B125" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="C125" s="14" t="s">
-        <v>485</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="E125" s="20" t="s">
+      <c r="G125" s="18"/>
+      <c r="H125" s="18" t="s">
         <v>490</v>
       </c>
-      <c r="F125" s="20" t="s">
+      <c r="I125" s="18"/>
+    </row>
+    <row r="126" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A126" s="11" t="s">
         <v>491</v>
-      </c>
-      <c r="G125" s="20"/>
-      <c r="H125" s="20" t="s">
-        <v>492</v>
-      </c>
-      <c r="I125" s="5"/>
-    </row>
-    <row r="126" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A126" s="13" t="s">
-        <v>493</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>43</v>
@@ -6847,21 +6872,21 @@
       <c r="D126" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E126" s="20" t="s">
+      <c r="E126" s="18" t="s">
+        <v>492</v>
+      </c>
+      <c r="F126" s="18" t="s">
+        <v>493</v>
+      </c>
+      <c r="G126" s="18"/>
+      <c r="H126" s="18" t="s">
         <v>494</v>
       </c>
-      <c r="F126" s="20" t="s">
-        <v>495</v>
-      </c>
-      <c r="G126" s="20"/>
-      <c r="H126" s="20" t="s">
-        <v>496</v>
-      </c>
-      <c r="I126" s="5"/>
+      <c r="I126" s="18"/>
     </row>
     <row r="127" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>43</v>
@@ -6872,21 +6897,21 @@
       <c r="D127" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E127" s="20" t="s">
-        <v>498</v>
-      </c>
-      <c r="F127" s="20" t="s">
-        <v>499</v>
-      </c>
-      <c r="G127" s="20"/>
-      <c r="H127" s="20" t="s">
+      <c r="E127" s="18" t="s">
+        <v>496</v>
+      </c>
+      <c r="F127" s="18" t="s">
+        <v>497</v>
+      </c>
+      <c r="G127" s="18"/>
+      <c r="H127" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="I127" s="5"/>
+      <c r="I127" s="18"/>
     </row>
     <row r="128" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>43</v>
@@ -6897,21 +6922,21 @@
       <c r="D128" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E128" s="20" t="s">
-        <v>501</v>
-      </c>
-      <c r="F128" s="20" t="s">
-        <v>502</v>
-      </c>
-      <c r="G128" s="20"/>
-      <c r="H128" s="20" t="s">
+      <c r="E128" s="18" t="s">
+        <v>499</v>
+      </c>
+      <c r="F128" s="18" t="s">
+        <v>500</v>
+      </c>
+      <c r="G128" s="18"/>
+      <c r="H128" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="I128" s="5"/>
+      <c r="I128" s="18"/>
     </row>
     <row r="129" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>43</v>
@@ -6922,21 +6947,21 @@
       <c r="D129" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E129" s="20" t="s">
+      <c r="E129" s="18" t="s">
+        <v>502</v>
+      </c>
+      <c r="F129" s="18" t="s">
+        <v>503</v>
+      </c>
+      <c r="G129" s="18"/>
+      <c r="H129" s="18" t="s">
         <v>504</v>
       </c>
-      <c r="F129" s="20" t="s">
-        <v>505</v>
-      </c>
-      <c r="G129" s="20"/>
-      <c r="H129" s="20" t="s">
-        <v>506</v>
-      </c>
-      <c r="I129" s="5"/>
+      <c r="I129" s="18"/>
     </row>
     <row r="130" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>43</v>
@@ -6947,21 +6972,21 @@
       <c r="D130" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E130" s="20" t="s">
-        <v>508</v>
-      </c>
-      <c r="F130" s="20" t="s">
-        <v>509</v>
-      </c>
-      <c r="G130" s="20"/>
-      <c r="H130" s="20" t="s">
+      <c r="E130" s="18" t="s">
+        <v>506</v>
+      </c>
+      <c r="F130" s="18" t="s">
+        <v>507</v>
+      </c>
+      <c r="G130" s="18"/>
+      <c r="H130" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="I130" s="5"/>
+      <c r="I130" s="18"/>
     </row>
     <row r="131" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>43</v>
@@ -6970,25 +6995,25 @@
         <v>4000</v>
       </c>
       <c r="D131" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="E131" s="18" t="s">
+        <v>510</v>
+      </c>
+      <c r="F131" s="18" t="s">
         <v>511</v>
       </c>
-      <c r="E131" s="20" t="s">
+      <c r="G131" s="18" t="s">
         <v>512</v>
       </c>
-      <c r="F131" s="20" t="s">
+      <c r="H131" s="18" t="s">
         <v>513</v>
       </c>
-      <c r="G131" s="20" t="s">
-        <v>514</v>
-      </c>
-      <c r="H131" s="20" t="s">
-        <v>515</v>
-      </c>
-      <c r="I131" s="5"/>
+      <c r="I131" s="18"/>
     </row>
     <row r="132" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>10</v>
@@ -6997,25 +7022,25 @@
         <v>4000</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="E132" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="E132" s="18" t="s">
+        <v>515</v>
+      </c>
+      <c r="F132" s="18" t="s">
+        <v>516</v>
+      </c>
+      <c r="G132" s="18" t="s">
         <v>517</v>
       </c>
-      <c r="F132" s="20" t="s">
+      <c r="H132" s="18" t="s">
         <v>518</v>
       </c>
-      <c r="G132" s="20" t="s">
-        <v>519</v>
-      </c>
-      <c r="H132" s="20" t="s">
-        <v>520</v>
-      </c>
-      <c r="I132" s="5"/>
+      <c r="I132" s="18"/>
     </row>
     <row r="133" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>146</v>
@@ -7024,23 +7049,23 @@
         <v>5100</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="E133" s="20" t="s">
-        <v>522</v>
-      </c>
-      <c r="F133" s="20" t="s">
-        <v>523</v>
-      </c>
-      <c r="G133" s="20"/>
-      <c r="H133" s="20" t="s">
+        <v>405</v>
+      </c>
+      <c r="E133" s="18" t="s">
+        <v>520</v>
+      </c>
+      <c r="F133" s="18" t="s">
+        <v>521</v>
+      </c>
+      <c r="G133" s="18"/>
+      <c r="H133" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="I133" s="5"/>
+      <c r="I133" s="18"/>
     </row>
     <row r="134" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>43</v>
@@ -7051,21 +7076,21 @@
       <c r="D134" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E134" s="20" t="s">
-        <v>525</v>
-      </c>
-      <c r="F134" s="20" t="s">
-        <v>526</v>
-      </c>
-      <c r="G134" s="20"/>
-      <c r="H134" s="20" t="s">
+      <c r="E134" s="18" t="s">
+        <v>523</v>
+      </c>
+      <c r="F134" s="18" t="s">
+        <v>524</v>
+      </c>
+      <c r="G134" s="18"/>
+      <c r="H134" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="I134" s="5"/>
+      <c r="I134" s="18"/>
     </row>
     <row r="135" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>43</v>
@@ -7076,73 +7101,75 @@
       <c r="D135" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E135" s="20" t="s">
-        <v>528</v>
-      </c>
-      <c r="F135" s="20" t="s">
-        <v>529</v>
-      </c>
-      <c r="G135" s="20"/>
-      <c r="H135" s="20" t="s">
+      <c r="E135" s="18" t="s">
+        <v>526</v>
+      </c>
+      <c r="F135" s="18" t="s">
+        <v>527</v>
+      </c>
+      <c r="G135" s="18"/>
+      <c r="H135" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="I135" s="5"/>
+      <c r="I135" s="18"/>
     </row>
     <row r="136" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="E136" s="20" t="s">
-        <v>532</v>
-      </c>
-      <c r="F136" s="20" t="s">
-        <v>533</v>
-      </c>
-      <c r="G136" s="20"/>
-      <c r="H136" s="20" t="s">
+      <c r="E136" s="18" t="s">
+        <v>695</v>
+      </c>
+      <c r="F136" s="18" t="s">
+        <v>530</v>
+      </c>
+      <c r="G136" s="18"/>
+      <c r="H136" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="I136" s="5"/>
+      <c r="I136" s="18" t="s">
+        <v>700</v>
+      </c>
     </row>
     <row r="137" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="E137" s="20" t="s">
+      <c r="E137" s="18" t="s">
+        <v>532</v>
+      </c>
+      <c r="F137" s="18" t="s">
+        <v>533</v>
+      </c>
+      <c r="G137" s="18" t="s">
+        <v>534</v>
+      </c>
+      <c r="H137" s="18" t="s">
         <v>535</v>
       </c>
-      <c r="F137" s="20" t="s">
-        <v>536</v>
-      </c>
-      <c r="G137" s="20" t="s">
-        <v>537</v>
-      </c>
-      <c r="H137" s="20" t="s">
-        <v>538</v>
-      </c>
-      <c r="I137" s="5"/>
+      <c r="I137" s="18"/>
     </row>
     <row r="138" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>17</v>
@@ -7153,21 +7180,21 @@
       <c r="D138" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="E138" s="20" t="s">
-        <v>540</v>
-      </c>
-      <c r="F138" s="20" t="s">
-        <v>541</v>
-      </c>
-      <c r="G138" s="20"/>
-      <c r="H138" s="20" t="s">
+      <c r="E138" s="18" t="s">
+        <v>537</v>
+      </c>
+      <c r="F138" s="18" t="s">
+        <v>538</v>
+      </c>
+      <c r="G138" s="18"/>
+      <c r="H138" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="I138" s="5"/>
+      <c r="I138" s="18"/>
     </row>
     <row r="139" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>43</v>
@@ -7178,21 +7205,21 @@
       <c r="D139" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E139" s="20" t="s">
-        <v>543</v>
-      </c>
-      <c r="F139" s="20" t="s">
-        <v>544</v>
-      </c>
-      <c r="G139" s="20"/>
-      <c r="H139" s="20" t="s">
+      <c r="E139" s="18" t="s">
+        <v>540</v>
+      </c>
+      <c r="F139" s="18" t="s">
+        <v>541</v>
+      </c>
+      <c r="G139" s="18"/>
+      <c r="H139" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="I139" s="5"/>
+      <c r="I139" s="18"/>
     </row>
     <row r="140" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>43</v>
@@ -7203,21 +7230,21 @@
       <c r="D140" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E140" s="20" t="s">
-        <v>685</v>
-      </c>
-      <c r="F140" s="20" t="s">
-        <v>546</v>
-      </c>
-      <c r="G140" s="20"/>
-      <c r="H140" s="20" t="s">
+      <c r="E140" s="18" t="s">
+        <v>675</v>
+      </c>
+      <c r="F140" s="18" t="s">
+        <v>543</v>
+      </c>
+      <c r="G140" s="18"/>
+      <c r="H140" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="I140" s="5"/>
+      <c r="I140" s="18"/>
     </row>
     <row r="141" spans="1:9" ht="225" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>10</v>
@@ -7226,28 +7253,28 @@
         <v>4000</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="E141" s="20" t="s">
-        <v>548</v>
-      </c>
-      <c r="F141" s="20" t="s">
-        <v>549</v>
-      </c>
-      <c r="G141" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="E141" s="18" t="s">
+        <v>545</v>
+      </c>
+      <c r="F141" s="18" t="s">
+        <v>546</v>
+      </c>
+      <c r="G141" s="18" t="s">
         <v>271</v>
       </c>
-      <c r="H141" s="20" t="s">
+      <c r="H141" s="18" t="s">
         <v>286</v>
       </c>
-      <c r="I141" s="5"/>
+      <c r="I141" s="18"/>
     </row>
     <row r="142" spans="1:9" ht="225" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C142" s="2">
         <v>4000</v>
@@ -7255,21 +7282,21 @@
       <c r="D142" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="E142" s="20" t="s">
-        <v>552</v>
-      </c>
-      <c r="F142" s="20" t="s">
-        <v>553</v>
-      </c>
-      <c r="G142" s="20"/>
-      <c r="H142" s="20" t="s">
+      <c r="E142" s="18" t="s">
+        <v>549</v>
+      </c>
+      <c r="F142" s="18" t="s">
+        <v>550</v>
+      </c>
+      <c r="G142" s="18"/>
+      <c r="H142" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="I142" s="5"/>
+      <c r="I142" s="18"/>
     </row>
     <row r="143" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>43</v>
@@ -7278,23 +7305,23 @@
         <v>4000</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="E143" s="20" t="s">
-        <v>555</v>
-      </c>
-      <c r="F143" s="20" t="s">
-        <v>556</v>
-      </c>
-      <c r="G143" s="20"/>
-      <c r="H143" s="20" t="s">
+        <v>676</v>
+      </c>
+      <c r="E143" s="18" t="s">
+        <v>552</v>
+      </c>
+      <c r="F143" s="18" t="s">
+        <v>553</v>
+      </c>
+      <c r="G143" s="18"/>
+      <c r="H143" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="I143" s="5"/>
+      <c r="I143" s="18"/>
     </row>
     <row r="144" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>43</v>
@@ -7305,21 +7332,21 @@
       <c r="D144" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E144" s="20" t="s">
-        <v>558</v>
-      </c>
-      <c r="F144" s="20" t="s">
-        <v>559</v>
-      </c>
-      <c r="G144" s="20"/>
-      <c r="H144" s="20" t="s">
+      <c r="E144" s="18" t="s">
+        <v>555</v>
+      </c>
+      <c r="F144" s="18" t="s">
+        <v>556</v>
+      </c>
+      <c r="G144" s="18"/>
+      <c r="H144" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="I144" s="5"/>
+      <c r="I144" s="18"/>
     </row>
     <row r="145" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>165</v>
@@ -7330,21 +7357,21 @@
       <c r="D145" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="E145" s="20" t="s">
-        <v>561</v>
-      </c>
-      <c r="F145" s="20" t="s">
-        <v>562</v>
-      </c>
-      <c r="G145" s="20"/>
-      <c r="H145" s="20" t="s">
+      <c r="E145" s="18" t="s">
+        <v>558</v>
+      </c>
+      <c r="F145" s="18" t="s">
+        <v>559</v>
+      </c>
+      <c r="G145" s="18"/>
+      <c r="H145" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="I145" s="5"/>
+      <c r="I145" s="18"/>
     </row>
     <row r="146" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>165</v>
@@ -7355,21 +7382,21 @@
       <c r="D146" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="E146" s="20" t="s">
-        <v>564</v>
-      </c>
-      <c r="F146" s="20" t="s">
-        <v>565</v>
-      </c>
-      <c r="G146" s="20"/>
-      <c r="H146" s="20" t="s">
+      <c r="E146" s="18" t="s">
+        <v>561</v>
+      </c>
+      <c r="F146" s="18" t="s">
+        <v>562</v>
+      </c>
+      <c r="G146" s="18"/>
+      <c r="H146" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="I146" s="5"/>
+      <c r="I146" s="18"/>
     </row>
     <row r="147" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>43</v>
@@ -7378,25 +7405,25 @@
         <v>5300</v>
       </c>
       <c r="D147" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="E147" s="18" t="s">
+        <v>565</v>
+      </c>
+      <c r="F147" s="18" t="s">
+        <v>566</v>
+      </c>
+      <c r="G147" s="18" t="s">
         <v>567</v>
       </c>
-      <c r="E147" s="20" t="s">
+      <c r="H147" s="18" t="s">
         <v>568</v>
       </c>
-      <c r="F147" s="20" t="s">
-        <v>569</v>
-      </c>
-      <c r="G147" s="20" t="s">
-        <v>570</v>
-      </c>
-      <c r="H147" s="20" t="s">
-        <v>571</v>
-      </c>
-      <c r="I147" s="5"/>
+      <c r="I147" s="18"/>
     </row>
     <row r="148" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>43</v>
@@ -7405,25 +7432,25 @@
         <v>5300</v>
       </c>
       <c r="D148" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="E148" s="18" t="s">
+        <v>570</v>
+      </c>
+      <c r="F148" s="18" t="s">
+        <v>571</v>
+      </c>
+      <c r="G148" s="18" t="s">
         <v>567</v>
       </c>
-      <c r="E148" s="20" t="s">
-        <v>573</v>
-      </c>
-      <c r="F148" s="20" t="s">
-        <v>574</v>
-      </c>
-      <c r="G148" s="20" t="s">
-        <v>570</v>
-      </c>
-      <c r="H148" s="20" t="s">
-        <v>571</v>
-      </c>
-      <c r="I148" s="5"/>
+      <c r="H148" s="18" t="s">
+        <v>568</v>
+      </c>
+      <c r="I148" s="18"/>
     </row>
     <row r="149" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>10</v>
@@ -7434,23 +7461,23 @@
       <c r="D149" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="E149" s="20" t="s">
-        <v>576</v>
-      </c>
-      <c r="F149" s="20" t="s">
-        <v>577</v>
-      </c>
-      <c r="G149" s="20" t="s">
+      <c r="E149" s="18" t="s">
+        <v>573</v>
+      </c>
+      <c r="F149" s="18" t="s">
+        <v>574</v>
+      </c>
+      <c r="G149" s="18" t="s">
         <v>271</v>
       </c>
-      <c r="H149" s="20" t="s">
-        <v>578</v>
-      </c>
-      <c r="I149" s="5"/>
+      <c r="H149" s="18" t="s">
+        <v>575</v>
+      </c>
+      <c r="I149" s="18"/>
     </row>
     <row r="150" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>28</v>
@@ -7461,50 +7488,50 @@
       <c r="D150" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="E150" s="20" t="s">
-        <v>580</v>
-      </c>
-      <c r="F150" s="20" t="s">
-        <v>581</v>
-      </c>
-      <c r="G150" s="20" t="s">
-        <v>570</v>
-      </c>
-      <c r="H150" s="20" t="s">
-        <v>582</v>
-      </c>
-      <c r="I150" s="5"/>
+      <c r="E150" s="18" t="s">
+        <v>577</v>
+      </c>
+      <c r="F150" s="18" t="s">
+        <v>578</v>
+      </c>
+      <c r="G150" s="18" t="s">
+        <v>567</v>
+      </c>
+      <c r="H150" s="18" t="s">
+        <v>579</v>
+      </c>
+      <c r="I150" s="18"/>
     </row>
     <row r="151" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="E151" s="20" t="s">
-        <v>585</v>
-      </c>
-      <c r="F151" s="20" t="s">
-        <v>586</v>
-      </c>
-      <c r="G151" s="20" t="s">
-        <v>570</v>
-      </c>
-      <c r="H151" s="20" t="s">
+      <c r="E151" s="18" t="s">
         <v>582</v>
       </c>
-      <c r="I151" s="5"/>
+      <c r="F151" s="18" t="s">
+        <v>583</v>
+      </c>
+      <c r="G151" s="18" t="s">
+        <v>567</v>
+      </c>
+      <c r="H151" s="18" t="s">
+        <v>579</v>
+      </c>
+      <c r="I151" s="18"/>
     </row>
     <row r="152" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>43</v>
@@ -7515,21 +7542,21 @@
       <c r="D152" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E152" s="20" t="s">
-        <v>588</v>
-      </c>
-      <c r="F152" s="20" t="s">
-        <v>589</v>
-      </c>
-      <c r="G152" s="20"/>
-      <c r="H152" s="20" t="s">
-        <v>590</v>
-      </c>
-      <c r="I152" s="5"/>
+      <c r="E152" s="18" t="s">
+        <v>585</v>
+      </c>
+      <c r="F152" s="18" t="s">
+        <v>586</v>
+      </c>
+      <c r="G152" s="18"/>
+      <c r="H152" s="18" t="s">
+        <v>587</v>
+      </c>
+      <c r="I152" s="18"/>
     </row>
     <row r="153" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>43</v>
@@ -7540,21 +7567,21 @@
       <c r="D153" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E153" s="20" t="s">
-        <v>592</v>
-      </c>
-      <c r="F153" s="20" t="s">
-        <v>593</v>
-      </c>
-      <c r="G153" s="20"/>
-      <c r="H153" s="20" t="s">
+      <c r="E153" s="18" t="s">
+        <v>589</v>
+      </c>
+      <c r="F153" s="18" t="s">
         <v>590</v>
       </c>
-      <c r="I153" s="5"/>
+      <c r="G153" s="18"/>
+      <c r="H153" s="18" t="s">
+        <v>587</v>
+      </c>
+      <c r="I153" s="18"/>
     </row>
     <row r="154" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>36</v>
@@ -7565,46 +7592,46 @@
       <c r="D154" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E154" s="20" t="s">
-        <v>594</v>
-      </c>
-      <c r="F154" s="20" t="s">
-        <v>595</v>
-      </c>
-      <c r="G154" s="20"/>
-      <c r="H154" s="20" t="s">
-        <v>590</v>
-      </c>
-      <c r="I154" s="5"/>
+      <c r="E154" s="18" t="s">
+        <v>591</v>
+      </c>
+      <c r="F154" s="18" t="s">
+        <v>592</v>
+      </c>
+      <c r="G154" s="18"/>
+      <c r="H154" s="18" t="s">
+        <v>587</v>
+      </c>
+      <c r="I154" s="18"/>
     </row>
     <row r="155" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E155" s="18" t="s">
+        <v>595</v>
+      </c>
+      <c r="F155" s="18" t="s">
         <v>596</v>
       </c>
-      <c r="B155" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E155" s="20" t="s">
-        <v>598</v>
-      </c>
-      <c r="F155" s="20" t="s">
-        <v>599</v>
-      </c>
-      <c r="G155" s="20"/>
-      <c r="H155" s="20" t="s">
-        <v>590</v>
-      </c>
-      <c r="I155" s="5"/>
+      <c r="G155" s="18"/>
+      <c r="H155" s="18" t="s">
+        <v>587</v>
+      </c>
+      <c r="I155" s="18"/>
     </row>
     <row r="156" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>49</v>
@@ -7615,26 +7642,28 @@
       <c r="D156" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="E156" s="20" t="s">
-        <v>601</v>
-      </c>
-      <c r="F156" s="20" t="s">
-        <v>602</v>
-      </c>
-      <c r="G156" s="20" t="s">
+      <c r="E156" s="18" t="s">
+        <v>598</v>
+      </c>
+      <c r="F156" s="18" t="s">
+        <v>599</v>
+      </c>
+      <c r="G156" s="18" t="s">
         <v>271</v>
       </c>
-      <c r="H156" s="20" t="s">
-        <v>578</v>
-      </c>
-      <c r="I156" s="5"/>
+      <c r="H156" s="18" t="s">
+        <v>575</v>
+      </c>
+      <c r="I156" s="18" t="s">
+        <v>700</v>
+      </c>
     </row>
     <row r="157" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="C157" s="2">
         <v>6123</v>
@@ -7642,23 +7671,23 @@
       <c r="D157" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="E157" s="20" t="s">
-        <v>687</v>
-      </c>
-      <c r="F157" s="20" t="s">
-        <v>605</v>
-      </c>
-      <c r="G157" s="20" t="s">
+      <c r="E157" s="18" t="s">
+        <v>677</v>
+      </c>
+      <c r="F157" s="18" t="s">
+        <v>602</v>
+      </c>
+      <c r="G157" s="18" t="s">
         <v>271</v>
       </c>
-      <c r="H157" s="20" t="s">
-        <v>606</v>
-      </c>
-      <c r="I157" s="5"/>
+      <c r="H157" s="18" t="s">
+        <v>603</v>
+      </c>
+      <c r="I157" s="18"/>
     </row>
     <row r="158" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>43</v>
@@ -7667,23 +7696,23 @@
         <v>5300</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="E158" s="20" t="s">
-        <v>688</v>
-      </c>
-      <c r="F158" s="20" t="s">
-        <v>608</v>
-      </c>
-      <c r="G158" s="20"/>
-      <c r="H158" s="20" t="s">
-        <v>590</v>
-      </c>
-      <c r="I158" s="5"/>
+        <v>564</v>
+      </c>
+      <c r="E158" s="18" t="s">
+        <v>678</v>
+      </c>
+      <c r="F158" s="18" t="s">
+        <v>605</v>
+      </c>
+      <c r="G158" s="18"/>
+      <c r="H158" s="18" t="s">
+        <v>587</v>
+      </c>
+      <c r="I158" s="18"/>
     </row>
     <row r="159" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>43</v>
@@ -7694,21 +7723,21 @@
       <c r="D159" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E159" s="20" t="s">
-        <v>689</v>
-      </c>
-      <c r="F159" s="20" t="s">
-        <v>610</v>
-      </c>
-      <c r="G159" s="20"/>
-      <c r="H159" s="20" t="s">
-        <v>590</v>
-      </c>
-      <c r="I159" s="5"/>
+      <c r="E159" s="18" t="s">
+        <v>679</v>
+      </c>
+      <c r="F159" s="18" t="s">
+        <v>607</v>
+      </c>
+      <c r="G159" s="18"/>
+      <c r="H159" s="18" t="s">
+        <v>587</v>
+      </c>
+      <c r="I159" s="18"/>
     </row>
     <row r="160" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>43</v>
@@ -7719,21 +7748,21 @@
       <c r="D160" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E160" s="20" t="s">
-        <v>690</v>
-      </c>
-      <c r="F160" s="20" t="s">
-        <v>612</v>
-      </c>
-      <c r="G160" s="20"/>
-      <c r="H160" s="20" t="s">
-        <v>590</v>
-      </c>
-      <c r="I160" s="5"/>
+      <c r="E160" s="18" t="s">
+        <v>680</v>
+      </c>
+      <c r="F160" s="18" t="s">
+        <v>609</v>
+      </c>
+      <c r="G160" s="18"/>
+      <c r="H160" s="18" t="s">
+        <v>587</v>
+      </c>
+      <c r="I160" s="18"/>
     </row>
     <row r="161" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>43</v>
@@ -7744,21 +7773,21 @@
       <c r="D161" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E161" s="20" t="s">
-        <v>691</v>
-      </c>
-      <c r="F161" s="20" t="s">
-        <v>614</v>
-      </c>
-      <c r="G161" s="20"/>
-      <c r="H161" s="20" t="s">
-        <v>590</v>
-      </c>
-      <c r="I161" s="5"/>
+      <c r="E161" s="18" t="s">
+        <v>681</v>
+      </c>
+      <c r="F161" s="18" t="s">
+        <v>611</v>
+      </c>
+      <c r="G161" s="18"/>
+      <c r="H161" s="18" t="s">
+        <v>587</v>
+      </c>
+      <c r="I161" s="18"/>
     </row>
     <row r="162" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>43</v>
@@ -7769,21 +7798,21 @@
       <c r="D162" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E162" s="20" t="s">
-        <v>673</v>
-      </c>
-      <c r="F162" s="20" t="s">
-        <v>616</v>
-      </c>
-      <c r="G162" s="20"/>
-      <c r="H162" s="20" t="s">
-        <v>590</v>
-      </c>
-      <c r="I162" s="5"/>
+      <c r="E162" s="18" t="s">
+        <v>666</v>
+      </c>
+      <c r="F162" s="18" t="s">
+        <v>613</v>
+      </c>
+      <c r="G162" s="18"/>
+      <c r="H162" s="18" t="s">
+        <v>587</v>
+      </c>
+      <c r="I162" s="18"/>
     </row>
     <row r="163" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>43</v>
@@ -7794,21 +7823,21 @@
       <c r="D163" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E163" s="20" t="s">
-        <v>675</v>
-      </c>
-      <c r="F163" s="20" t="s">
-        <v>618</v>
-      </c>
-      <c r="G163" s="20"/>
-      <c r="H163" s="20" t="s">
-        <v>590</v>
-      </c>
-      <c r="I163" s="5"/>
+      <c r="E163" s="18" t="s">
+        <v>668</v>
+      </c>
+      <c r="F163" s="18" t="s">
+        <v>615</v>
+      </c>
+      <c r="G163" s="18"/>
+      <c r="H163" s="18" t="s">
+        <v>587</v>
+      </c>
+      <c r="I163" s="18"/>
     </row>
     <row r="164" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>43</v>
@@ -7819,21 +7848,21 @@
       <c r="D164" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E164" s="20" t="s">
-        <v>692</v>
-      </c>
-      <c r="F164" s="20" t="s">
-        <v>620</v>
-      </c>
-      <c r="G164" s="20"/>
-      <c r="H164" s="20" t="s">
-        <v>590</v>
-      </c>
-      <c r="I164" s="5"/>
+      <c r="E164" s="18" t="s">
+        <v>682</v>
+      </c>
+      <c r="F164" s="18" t="s">
+        <v>617</v>
+      </c>
+      <c r="G164" s="18"/>
+      <c r="H164" s="18" t="s">
+        <v>587</v>
+      </c>
+      <c r="I164" s="18"/>
     </row>
     <row r="165" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>43</v>
@@ -7844,21 +7873,21 @@
       <c r="D165" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E165" s="20" t="s">
-        <v>693</v>
-      </c>
-      <c r="F165" s="20" t="s">
-        <v>622</v>
-      </c>
-      <c r="G165" s="20"/>
-      <c r="H165" s="20" t="s">
-        <v>590</v>
-      </c>
-      <c r="I165" s="5"/>
+      <c r="E165" s="18" t="s">
+        <v>683</v>
+      </c>
+      <c r="F165" s="18" t="s">
+        <v>619</v>
+      </c>
+      <c r="G165" s="18"/>
+      <c r="H165" s="18" t="s">
+        <v>587</v>
+      </c>
+      <c r="I165" s="18"/>
     </row>
     <row r="166" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>43</v>
@@ -7869,23 +7898,23 @@
       <c r="D166" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E166" s="20" t="s">
-        <v>694</v>
-      </c>
-      <c r="F166" s="20" t="s">
-        <v>624</v>
-      </c>
-      <c r="G166" s="20"/>
-      <c r="H166" s="20" t="s">
-        <v>590</v>
-      </c>
-      <c r="I166" s="5" t="s">
-        <v>625</v>
+      <c r="E166" s="18" t="s">
+        <v>684</v>
+      </c>
+      <c r="F166" s="18" t="s">
+        <v>621</v>
+      </c>
+      <c r="G166" s="18"/>
+      <c r="H166" s="18" t="s">
+        <v>587</v>
+      </c>
+      <c r="I166" s="18" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>43</v>
@@ -7896,21 +7925,21 @@
       <c r="D167" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E167" s="20" t="s">
-        <v>647</v>
-      </c>
-      <c r="F167" s="20" t="s">
-        <v>648</v>
-      </c>
-      <c r="G167" s="20"/>
-      <c r="H167" s="20" t="s">
-        <v>696</v>
-      </c>
-      <c r="I167" s="5"/>
+      <c r="E167" s="18" t="s">
+        <v>644</v>
+      </c>
+      <c r="F167" s="18" t="s">
+        <v>645</v>
+      </c>
+      <c r="G167" s="18"/>
+      <c r="H167" s="18" t="s">
+        <v>686</v>
+      </c>
+      <c r="I167" s="18"/>
     </row>
     <row r="168" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>43</v>
@@ -7921,21 +7950,21 @@
       <c r="D168" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E168" s="20" t="s">
-        <v>649</v>
-      </c>
-      <c r="F168" s="20" t="s">
-        <v>650</v>
-      </c>
-      <c r="G168" s="20"/>
-      <c r="H168" s="20" t="s">
-        <v>696</v>
-      </c>
-      <c r="I168" s="5"/>
+      <c r="E168" s="18" t="s">
+        <v>646</v>
+      </c>
+      <c r="F168" s="18" t="s">
+        <v>647</v>
+      </c>
+      <c r="G168" s="18"/>
+      <c r="H168" s="18" t="s">
+        <v>686</v>
+      </c>
+      <c r="I168" s="18"/>
     </row>
     <row r="169" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>43</v>
@@ -7946,21 +7975,21 @@
       <c r="D169" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E169" s="20" t="s">
-        <v>651</v>
-      </c>
-      <c r="F169" s="20" t="s">
-        <v>652</v>
-      </c>
-      <c r="G169" s="20"/>
-      <c r="H169" s="20" t="s">
-        <v>696</v>
-      </c>
-      <c r="I169" s="5"/>
+      <c r="E169" s="18" t="s">
+        <v>648</v>
+      </c>
+      <c r="F169" s="18" t="s">
+        <v>649</v>
+      </c>
+      <c r="G169" s="18"/>
+      <c r="H169" s="18" t="s">
+        <v>686</v>
+      </c>
+      <c r="I169" s="18"/>
     </row>
     <row r="170" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>43</v>
@@ -7971,21 +8000,21 @@
       <c r="D170" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E170" s="20" t="s">
-        <v>653</v>
-      </c>
-      <c r="F170" s="20" t="s">
-        <v>654</v>
-      </c>
-      <c r="G170" s="20"/>
-      <c r="H170" s="20" t="s">
-        <v>696</v>
-      </c>
-      <c r="I170" s="5"/>
+      <c r="E170" s="18" t="s">
+        <v>650</v>
+      </c>
+      <c r="F170" s="18" t="s">
+        <v>651</v>
+      </c>
+      <c r="G170" s="18"/>
+      <c r="H170" s="18" t="s">
+        <v>686</v>
+      </c>
+      <c r="I170" s="18"/>
     </row>
     <row r="171" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>43</v>
@@ -7996,21 +8025,21 @@
       <c r="D171" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E171" s="20" t="s">
-        <v>655</v>
-      </c>
-      <c r="F171" s="20" t="s">
-        <v>656</v>
-      </c>
-      <c r="G171" s="20"/>
-      <c r="H171" s="20" t="s">
-        <v>696</v>
-      </c>
-      <c r="I171" s="5"/>
+      <c r="E171" s="18" t="s">
+        <v>652</v>
+      </c>
+      <c r="F171" s="18" t="s">
+        <v>653</v>
+      </c>
+      <c r="G171" s="18"/>
+      <c r="H171" s="18" t="s">
+        <v>686</v>
+      </c>
+      <c r="I171" s="18"/>
     </row>
     <row r="172" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>43</v>
@@ -8021,17 +8050,17 @@
       <c r="D172" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E172" s="20" t="s">
-        <v>657</v>
-      </c>
-      <c r="F172" s="20" t="s">
-        <v>658</v>
-      </c>
-      <c r="G172" s="20"/>
-      <c r="H172" s="20" t="s">
-        <v>696</v>
-      </c>
-      <c r="I172" s="5"/>
+      <c r="E172" s="18" t="s">
+        <v>654</v>
+      </c>
+      <c r="F172" s="18" t="s">
+        <v>655</v>
+      </c>
+      <c r="G172" s="18"/>
+      <c r="H172" s="18" t="s">
+        <v>686</v>
+      </c>
+      <c r="I172" s="18"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I164" xr:uid="{6D1CE330-317B-4DB9-809B-050E36F6D080}"/>
@@ -8048,478 +8077,646 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ABB3D28-76D3-46B4-9776-0D413A8A211B}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:D2"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23" style="17" customWidth="1"/>
-    <col min="3" max="3" width="78.140625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="80.28515625" style="16" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="16.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" style="15" customWidth="1"/>
+    <col min="3" max="4" width="78.140625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="80.28515625" style="14" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>623</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>626</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="E1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="21"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
+        <v>630</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="21"/>
+    </row>
+    <row r="3" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>631</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>632</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>640</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>641</v>
+      </c>
+      <c r="E3" s="20"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="14"/>
+    </row>
+    <row r="4" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>633</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>632</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>642</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>643</v>
+      </c>
+      <c r="E4" s="20"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="14"/>
+    </row>
+    <row r="5" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>634</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>632</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>644</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>645</v>
+      </c>
+      <c r="E5" s="18"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="14"/>
+    </row>
+    <row r="6" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
+        <v>635</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>632</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>646</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>647</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="14"/>
+    </row>
+    <row r="7" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
+        <v>636</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>632</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>648</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>649</v>
+      </c>
+      <c r="E7" s="18"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="14"/>
+    </row>
+    <row r="8" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
+        <v>637</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>632</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>650</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>651</v>
+      </c>
+      <c r="E8" s="18"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="14"/>
+    </row>
+    <row r="9" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
+        <v>638</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>632</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>652</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>653</v>
+      </c>
+      <c r="E9" s="18"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="14"/>
+    </row>
+    <row r="10" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
+        <v>639</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>632</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>654</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>655</v>
+      </c>
+      <c r="E10" s="18"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="14"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="32" t="s">
         <v>627</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="21"/>
+    </row>
+    <row r="12" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>656</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>687</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="14"/>
+    </row>
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>657</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>659</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="14"/>
+    </row>
+    <row r="14" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="25" t="s">
+        <v>287</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>657</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>696</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>700</v>
+      </c>
+      <c r="F14" s="21"/>
+      <c r="G14" s="14"/>
+    </row>
+    <row r="15" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="25" t="s">
+        <v>337</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>697</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="14"/>
+    </row>
+    <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="25" t="s">
+        <v>368</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>657</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>688</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>689</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>700</v>
+      </c>
+      <c r="F16" s="21"/>
+      <c r="G16" s="14"/>
+    </row>
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="25" t="s">
+        <v>381</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>657</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>382</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>660</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="14"/>
+    </row>
+    <row r="18" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
+        <v>389</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>656</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>390</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>690</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>701</v>
+      </c>
+      <c r="F18" s="21"/>
+      <c r="G18" s="14"/>
+    </row>
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="25" t="s">
+        <v>414</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>657</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>661</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="14"/>
+    </row>
+    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>656</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>691</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>701</v>
+      </c>
+      <c r="F20" s="21"/>
+      <c r="G20" s="14"/>
+    </row>
+    <row r="21" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="25" t="s">
+        <v>427</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>656</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>428</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>691</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>701</v>
+      </c>
+      <c r="F21" s="21"/>
+      <c r="G21" s="14"/>
+    </row>
+    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="25" t="s">
+        <v>437</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>657</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>692</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>689</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>700</v>
+      </c>
+      <c r="F22" s="21"/>
+      <c r="G22" s="14"/>
+    </row>
+    <row r="23" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A23" s="25" t="s">
+        <v>471</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>656</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>472</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>693</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>701</v>
+      </c>
+      <c r="F23" s="21"/>
+      <c r="G23" s="14"/>
+    </row>
+    <row r="24" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="25" t="s">
+        <v>498</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>656</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>499</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>694</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="14"/>
+    </row>
+    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="25" t="s">
+        <v>514</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>657</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>515</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>662</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="14"/>
+    </row>
+    <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="25" t="s">
+        <v>528</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>657</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>695</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>689</v>
+      </c>
+      <c r="E26" s="34" t="s">
+        <v>700</v>
+      </c>
+      <c r="F26" s="21"/>
+      <c r="G26" s="14"/>
+    </row>
+    <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="25" t="s">
+        <v>539</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>657</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>540</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>663</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="14"/>
+    </row>
+    <row r="28" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="25" t="s">
+        <v>544</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>657</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>545</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>664</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="14"/>
+    </row>
+    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="25" t="s">
+        <v>547</v>
+      </c>
+      <c r="B29" s="27" t="s">
+        <v>657</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>549</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>661</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="14"/>
+    </row>
+    <row r="30" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="25" t="s">
+        <v>551</v>
+      </c>
+      <c r="B30" s="27" t="s">
+        <v>657</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>552</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>664</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="14"/>
+    </row>
+    <row r="31" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="25" t="s">
+        <v>572</v>
+      </c>
+      <c r="B31" s="27" t="s">
+        <v>657</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>573</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>665</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="14"/>
+    </row>
+    <row r="32" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="25" t="s">
+        <v>576</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>657</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>577</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>665</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="14"/>
+    </row>
+    <row r="33" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A33" s="25" t="s">
+        <v>588</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>656</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>589</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>698</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="14"/>
+    </row>
+    <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="25" t="s">
+        <v>597</v>
+      </c>
+      <c r="B34" s="27" t="s">
+        <v>657</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>598</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>689</v>
+      </c>
+      <c r="E34" s="34" t="s">
+        <v>700</v>
+      </c>
+      <c r="F34" s="21"/>
+      <c r="G34" s="14"/>
+    </row>
+    <row r="35" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="25" t="s">
+        <v>612</v>
+      </c>
+      <c r="B35" s="27" t="s">
+        <v>657</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>666</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>667</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="14"/>
+    </row>
+    <row r="36" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="25" t="s">
+        <v>614</v>
+      </c>
+      <c r="B36" s="27" t="s">
         <v>628</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>629</v>
-      </c>
-      <c r="E1" s="25"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
-        <v>633</v>
-      </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="25"/>
-    </row>
-    <row r="3" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
-        <v>634</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>635</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>643</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>644</v>
-      </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="16"/>
-    </row>
-    <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
-        <v>636</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>635</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>645</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="16"/>
-    </row>
-    <row r="5" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
-        <v>637</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>635</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>647</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>648</v>
-      </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="16"/>
-    </row>
-    <row r="6" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
-        <v>638</v>
-      </c>
-      <c r="B6" s="31" t="s">
-        <v>635</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>649</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>650</v>
-      </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="16"/>
-    </row>
-    <row r="7" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
-        <v>639</v>
-      </c>
-      <c r="B7" s="31" t="s">
-        <v>635</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>651</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>652</v>
-      </c>
-      <c r="E7" s="25"/>
-      <c r="F7" s="16"/>
-    </row>
-    <row r="8" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
-        <v>640</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>635</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>653</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>654</v>
-      </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="16"/>
-    </row>
-    <row r="9" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
-        <v>641</v>
-      </c>
-      <c r="B9" s="31" t="s">
-        <v>635</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>655</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>656</v>
-      </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="16"/>
-    </row>
-    <row r="10" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
-        <v>642</v>
-      </c>
-      <c r="B10" s="31" t="s">
-        <v>635</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>657</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>658</v>
-      </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="16"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
-        <v>630</v>
-      </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="25"/>
-    </row>
-    <row r="12" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>659</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>662</v>
-      </c>
-      <c r="E12" s="25"/>
-      <c r="F12" s="16"/>
-    </row>
-    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>660</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>663</v>
-      </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="16"/>
-    </row>
-    <row r="14" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="30" t="s">
-        <v>337</v>
-      </c>
-      <c r="B14" s="31" t="s">
-        <v>661</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>338</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>664</v>
-      </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="16"/>
-    </row>
-    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="30" t="s">
-        <v>382</v>
-      </c>
-      <c r="B15" s="31" t="s">
-        <v>660</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>383</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>665</v>
-      </c>
-      <c r="E15" s="25"/>
-      <c r="F15" s="16"/>
-    </row>
-    <row r="16" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A16" s="30" t="s">
-        <v>390</v>
-      </c>
-      <c r="B16" s="31" t="s">
-        <v>659</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>391</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>677</v>
-      </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="16"/>
-    </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="30" t="s">
-        <v>415</v>
-      </c>
-      <c r="B17" s="31" t="s">
-        <v>660</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>416</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>666</v>
-      </c>
-      <c r="E17" s="25"/>
-      <c r="F17" s="16"/>
-    </row>
-    <row r="18" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" s="30" t="s">
-        <v>473</v>
-      </c>
-      <c r="B18" s="31" t="s">
-        <v>659</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>474</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>678</v>
-      </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="16"/>
-    </row>
-    <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="30" t="s">
-        <v>500</v>
-      </c>
-      <c r="B19" s="31" t="s">
-        <v>659</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>501</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>667</v>
-      </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="16"/>
-    </row>
-    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="30" t="s">
-        <v>516</v>
-      </c>
-      <c r="B20" s="31" t="s">
-        <v>660</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>517</v>
-      </c>
-      <c r="D20" s="20" t="s">
+      <c r="C36" s="20" t="s">
         <v>668</v>
       </c>
-      <c r="E20" s="25"/>
-      <c r="F20" s="16"/>
-    </row>
-    <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="30" t="s">
-        <v>542</v>
-      </c>
-      <c r="B21" s="31" t="s">
-        <v>660</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>543</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>669</v>
-      </c>
-      <c r="E21" s="25"/>
-      <c r="F21" s="16"/>
-    </row>
-    <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="30" t="s">
-        <v>547</v>
-      </c>
-      <c r="B22" s="31" t="s">
-        <v>660</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>548</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>670</v>
-      </c>
-      <c r="E22" s="25"/>
-      <c r="F22" s="16"/>
-    </row>
-    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="30" t="s">
-        <v>550</v>
-      </c>
-      <c r="B23" s="31" t="s">
-        <v>660</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>552</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>666</v>
-      </c>
-      <c r="E23" s="25"/>
-      <c r="F23" s="16"/>
-    </row>
-    <row r="24" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="30" t="s">
-        <v>554</v>
-      </c>
-      <c r="B24" s="31" t="s">
-        <v>660</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>555</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>670</v>
-      </c>
-      <c r="E24" s="25"/>
-      <c r="F24" s="16"/>
-    </row>
-    <row r="25" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="30" t="s">
-        <v>575</v>
-      </c>
-      <c r="B25" s="31" t="s">
-        <v>660</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>576</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>671</v>
-      </c>
-      <c r="E25" s="25"/>
-      <c r="F25" s="16"/>
-    </row>
-    <row r="26" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="30" t="s">
-        <v>579</v>
-      </c>
-      <c r="B26" s="31" t="s">
-        <v>660</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>580</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>671</v>
-      </c>
-      <c r="E26" s="25"/>
-      <c r="F26" s="16"/>
-    </row>
-    <row r="27" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="30" t="s">
-        <v>591</v>
-      </c>
-      <c r="B27" s="31" t="s">
-        <v>659</v>
-      </c>
-      <c r="C27" s="24" t="s">
-        <v>592</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>672</v>
-      </c>
-      <c r="E27" s="25"/>
-      <c r="F27" s="16"/>
-    </row>
-    <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="30" t="s">
-        <v>615</v>
-      </c>
-      <c r="B28" s="31" t="s">
-        <v>660</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>673</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>674</v>
-      </c>
-      <c r="E28" s="25"/>
-      <c r="F28" s="16"/>
-    </row>
-    <row r="29" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="30" t="s">
-        <v>617</v>
-      </c>
-      <c r="B29" s="31" t="s">
-        <v>631</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>675</v>
-      </c>
-      <c r="D29" s="20" t="s">
-        <v>676</v>
-      </c>
-      <c r="E29" s="25"/>
-      <c r="F29" s="16"/>
+      <c r="D36" s="20" t="s">
+        <v>699</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D29" xr:uid="{1EDB6A58-4A74-4197-A870-1E35A5F2697A}"/>
+  <autoFilter ref="A1:E36" xr:uid="{1EDB6A58-4A74-4197-A870-1E35A5F2697A}"/>
   <mergeCells count="2">
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8530,14 +8727,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="396e6507-7f84-40b1-a5d4-3e86fc118c97">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="79988a37-b17c-48fe-a207-ae2c3cbbfdd3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8766,21 +8961,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="396e6507-7f84-40b1-a5d4-3e86fc118c97">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="79988a37-b17c-48fe-a207-ae2c3cbbfdd3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{091C4095-DD09-494E-B50C-36236FB59881}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{665E1571-C47F-4F49-80ED-DA68113B34E1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="396e6507-7f84-40b1-a5d4-3e86fc118c97"/>
-    <ds:schemaRef ds:uri="79988a37-b17c-48fe-a207-ae2c3cbbfdd3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8805,9 +8999,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{665E1571-C47F-4F49-80ED-DA68113B34E1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{091C4095-DD09-494E-B50C-36236FB59881}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="396e6507-7f84-40b1-a5d4-3e86fc118c97"/>
+    <ds:schemaRef ds:uri="79988a37-b17c-48fe-a207-ae2c3cbbfdd3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>